--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4552,28 +4552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>391.5116755232813</v>
+        <v>518.6268013925438</v>
       </c>
       <c r="AB2" t="n">
-        <v>535.6835467270624</v>
+        <v>709.6080698649532</v>
       </c>
       <c r="AC2" t="n">
-        <v>484.5586608640106</v>
+        <v>641.8840716182225</v>
       </c>
       <c r="AD2" t="n">
-        <v>391511.6755232813</v>
+        <v>518626.8013925438</v>
       </c>
       <c r="AE2" t="n">
-        <v>535683.5467270624</v>
+        <v>709608.0698649532</v>
       </c>
       <c r="AF2" t="n">
         <v>6.407132947412919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.49074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>484558.6608640106</v>
+        <v>641884.0716182225</v>
       </c>
     </row>
     <row r="3">
@@ -4658,28 +4658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.8439320602893</v>
+        <v>362.8733036857201</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.0535931034137</v>
+        <v>496.4992629431146</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.1635659721559</v>
+        <v>449.1140701289151</v>
       </c>
       <c r="AD3" t="n">
-        <v>274843.9320602893</v>
+        <v>362873.3036857201</v>
       </c>
       <c r="AE3" t="n">
-        <v>376053.5931034137</v>
+        <v>496499.2629431146</v>
       </c>
       <c r="AF3" t="n">
         <v>8.675557429810551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>340163.5659721559</v>
+        <v>449114.0701289151</v>
       </c>
     </row>
     <row r="4">
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.3498757952651</v>
+        <v>320.5907261503505</v>
       </c>
       <c r="AB4" t="n">
-        <v>331.5937917848628</v>
+        <v>438.6463749835527</v>
       </c>
       <c r="AC4" t="n">
-        <v>299.9469456918239</v>
+        <v>396.7825805991756</v>
       </c>
       <c r="AD4" t="n">
-        <v>242349.8757952651</v>
+        <v>320590.7261503505</v>
       </c>
       <c r="AE4" t="n">
-        <v>331593.7917848628</v>
+        <v>438646.3749835527</v>
       </c>
       <c r="AF4" t="n">
         <v>9.540455286621414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.44675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>299946.9456918239</v>
+        <v>396782.5805991755</v>
       </c>
     </row>
     <row r="5">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>226.4900400167628</v>
+        <v>304.7982101795523</v>
       </c>
       <c r="AB5" t="n">
-        <v>309.8936647861537</v>
+        <v>417.0383579156739</v>
       </c>
       <c r="AC5" t="n">
-        <v>280.3178483575451</v>
+        <v>377.2368023532126</v>
       </c>
       <c r="AD5" t="n">
-        <v>226490.0400167628</v>
+        <v>304798.2101795523</v>
       </c>
       <c r="AE5" t="n">
-        <v>309893.6647861537</v>
+        <v>417038.3579156739</v>
       </c>
       <c r="AF5" t="n">
         <v>9.999076257417012e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>280317.8483575451</v>
+        <v>377236.8023532126</v>
       </c>
     </row>
     <row r="6">
@@ -4976,28 +4976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.9363064064121</v>
+        <v>301.1429913427164</v>
       </c>
       <c r="AB6" t="n">
-        <v>305.0312896808124</v>
+        <v>412.0371262462408</v>
       </c>
       <c r="AC6" t="n">
-        <v>275.9195315078697</v>
+        <v>372.7128812150375</v>
       </c>
       <c r="AD6" t="n">
-        <v>222936.3064064121</v>
+        <v>301142.9913427164</v>
       </c>
       <c r="AE6" t="n">
-        <v>305031.2896808124</v>
+        <v>412037.1262462408</v>
       </c>
       <c r="AF6" t="n">
         <v>1.029483389706965e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.24305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>275919.5315078697</v>
+        <v>372712.8812150375</v>
       </c>
     </row>
     <row r="7">
@@ -5082,28 +5082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>210.7339143536965</v>
+        <v>289.007919097705</v>
       </c>
       <c r="AB7" t="n">
-        <v>288.3354385427514</v>
+        <v>395.4333850390126</v>
       </c>
       <c r="AC7" t="n">
-        <v>260.8171089696457</v>
+        <v>357.6937777651301</v>
       </c>
       <c r="AD7" t="n">
-        <v>210733.9143536965</v>
+        <v>289007.919097705</v>
       </c>
       <c r="AE7" t="n">
-        <v>288335.4385427514</v>
+        <v>395433.3850390126</v>
       </c>
       <c r="AF7" t="n">
         <v>1.047519045861848e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.98842592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>260817.1089696457</v>
+        <v>357693.77776513</v>
       </c>
     </row>
     <row r="8">
@@ -5188,28 +5188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>208.6957833200259</v>
+        <v>286.9697880640344</v>
       </c>
       <c r="AB8" t="n">
-        <v>285.5467777464895</v>
+        <v>392.6447242427493</v>
       </c>
       <c r="AC8" t="n">
-        <v>258.2945940458682</v>
+        <v>355.1712628413521</v>
       </c>
       <c r="AD8" t="n">
-        <v>208695.7833200259</v>
+        <v>286969.7880640344</v>
       </c>
       <c r="AE8" t="n">
-        <v>285546.7777464895</v>
+        <v>392644.7242427493</v>
       </c>
       <c r="AF8" t="n">
         <v>1.063954546057124e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.75694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>258294.5940458681</v>
+        <v>355171.2628413521</v>
       </c>
     </row>
     <row r="9">
@@ -5294,28 +5294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>206.9865996422286</v>
+        <v>285.2606043862371</v>
       </c>
       <c r="AB9" t="n">
-        <v>283.2081972346662</v>
+        <v>390.3061437309249</v>
       </c>
       <c r="AC9" t="n">
-        <v>256.1792043758742</v>
+        <v>353.0558731713578</v>
       </c>
       <c r="AD9" t="n">
-        <v>206986.5996422286</v>
+        <v>285260.6043862371</v>
       </c>
       <c r="AE9" t="n">
-        <v>283208.1972346662</v>
+        <v>390306.1437309249</v>
       </c>
       <c r="AF9" t="n">
         <v>1.075792988029465e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.59490740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>256179.2043758742</v>
+        <v>353055.8731713578</v>
       </c>
     </row>
     <row r="10">
@@ -5400,28 +5400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>206.1060192375674</v>
+        <v>284.3800239815758</v>
       </c>
       <c r="AB10" t="n">
-        <v>282.0033482765437</v>
+        <v>389.1012947728017</v>
       </c>
       <c r="AC10" t="n">
-        <v>255.0893445112984</v>
+        <v>351.9660133067818</v>
       </c>
       <c r="AD10" t="n">
-        <v>206106.0192375674</v>
+        <v>284380.0239815759</v>
       </c>
       <c r="AE10" t="n">
-        <v>282003.3482765437</v>
+        <v>389101.2947728017</v>
       </c>
       <c r="AF10" t="n">
         <v>1.080742622989264e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.52546296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>255089.3445112984</v>
+        <v>351966.0133067818</v>
       </c>
     </row>
     <row r="11">
@@ -5506,28 +5506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>205.1367209340571</v>
+        <v>273.5890500187937</v>
       </c>
       <c r="AB11" t="n">
-        <v>280.6771115752585</v>
+        <v>374.3366081327507</v>
       </c>
       <c r="AC11" t="n">
-        <v>253.8896819793985</v>
+        <v>338.6104476372894</v>
       </c>
       <c r="AD11" t="n">
-        <v>205136.7209340571</v>
+        <v>273589.0500187937</v>
       </c>
       <c r="AE11" t="n">
-        <v>280677.1115752585</v>
+        <v>374336.6081327507</v>
       </c>
       <c r="AF11" t="n">
         <v>1.086397411422787e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>253889.6819793985</v>
+        <v>338610.4476372894</v>
       </c>
     </row>
     <row r="12">
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>204.2206165074195</v>
+        <v>272.6729455921561</v>
       </c>
       <c r="AB12" t="n">
-        <v>279.4236570830586</v>
+        <v>373.0831536405503</v>
       </c>
       <c r="AC12" t="n">
-        <v>252.7558554246994</v>
+        <v>337.4766210825902</v>
       </c>
       <c r="AD12" t="n">
-        <v>204220.6165074195</v>
+        <v>272672.945592156</v>
       </c>
       <c r="AE12" t="n">
-        <v>279423.6570830586</v>
+        <v>373083.1536405503</v>
       </c>
       <c r="AF12" t="n">
         <v>1.091672501831997e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH12" t="n">
-        <v>252755.8554246994</v>
+        <v>337476.6210825901</v>
       </c>
     </row>
     <row r="13">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>202.8789907562667</v>
+        <v>271.3313198410033</v>
       </c>
       <c r="AB13" t="n">
-        <v>277.5879855419815</v>
+        <v>371.2474820994722</v>
       </c>
       <c r="AC13" t="n">
-        <v>251.0953777991209</v>
+        <v>335.8161434570114</v>
       </c>
       <c r="AD13" t="n">
-        <v>202878.9907562668</v>
+        <v>271331.3198410033</v>
       </c>
       <c r="AE13" t="n">
-        <v>277587.9855419815</v>
+        <v>371247.4820994722</v>
       </c>
       <c r="AF13" t="n">
         <v>1.098371459832383e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.29398148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>251095.3777991209</v>
+        <v>335816.1434570114</v>
       </c>
     </row>
     <row r="14">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>202.1021620589846</v>
+        <v>270.5544911437211</v>
       </c>
       <c r="AB14" t="n">
-        <v>276.5250942470973</v>
+        <v>370.1845908045874</v>
       </c>
       <c r="AC14" t="n">
-        <v>250.1339273576427</v>
+        <v>334.8546930155331</v>
       </c>
       <c r="AD14" t="n">
-        <v>202102.1620589846</v>
+        <v>270554.4911437211</v>
       </c>
       <c r="AE14" t="n">
-        <v>276525.0942470973</v>
+        <v>370184.5908045874</v>
       </c>
       <c r="AF14" t="n">
         <v>1.097015395459835e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.30555555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>250133.9273576427</v>
+        <v>334854.6930155332</v>
       </c>
     </row>
     <row r="15">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>201.218917792605</v>
+        <v>269.6712468773414</v>
       </c>
       <c r="AB15" t="n">
-        <v>275.3166004758504</v>
+        <v>368.9760970333398</v>
       </c>
       <c r="AC15" t="n">
-        <v>249.0407705357916</v>
+        <v>333.7615361936817</v>
       </c>
       <c r="AD15" t="n">
-        <v>201218.917792605</v>
+        <v>269671.2468773415</v>
       </c>
       <c r="AE15" t="n">
-        <v>275316.6004758503</v>
+        <v>368976.0970333398</v>
       </c>
       <c r="AF15" t="n">
         <v>1.104867008176886e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>249040.7705357916</v>
+        <v>333761.5361936817</v>
       </c>
     </row>
     <row r="16">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>200.6909160680657</v>
+        <v>269.1432451528022</v>
       </c>
       <c r="AB16" t="n">
-        <v>274.594165222544</v>
+        <v>368.2536617800331</v>
       </c>
       <c r="AC16" t="n">
-        <v>248.3872834891163</v>
+        <v>333.1080491470063</v>
       </c>
       <c r="AD16" t="n">
-        <v>200690.9160680657</v>
+        <v>269143.2451528022</v>
       </c>
       <c r="AE16" t="n">
-        <v>274594.165222544</v>
+        <v>368253.6617800331</v>
       </c>
       <c r="AF16" t="n">
         <v>1.10428390049669e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.21296296296296</v>
       </c>
       <c r="AH16" t="n">
-        <v>248387.2834891163</v>
+        <v>333108.0491470063</v>
       </c>
     </row>
     <row r="17">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>199.9951094740334</v>
+        <v>268.4474385587698</v>
       </c>
       <c r="AB17" t="n">
-        <v>273.642131943769</v>
+        <v>367.3016285012576</v>
       </c>
       <c r="AC17" t="n">
-        <v>247.5261109302801</v>
+        <v>332.24687658817</v>
       </c>
       <c r="AD17" t="n">
-        <v>199995.1094740334</v>
+        <v>268447.4385587698</v>
       </c>
       <c r="AE17" t="n">
-        <v>273642.1319437689</v>
+        <v>367301.6285012576</v>
       </c>
       <c r="AF17" t="n">
         <v>1.110698084978841e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.13194444444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>247526.1109302801</v>
+        <v>332246.8765881701</v>
       </c>
     </row>
     <row r="18">
@@ -6248,28 +6248,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>200.1999485863601</v>
+        <v>268.6522776710966</v>
       </c>
       <c r="AB18" t="n">
-        <v>273.9224018541181</v>
+        <v>367.5818984116069</v>
       </c>
       <c r="AC18" t="n">
-        <v>247.779632273747</v>
+        <v>332.5003979316369</v>
       </c>
       <c r="AD18" t="n">
-        <v>200199.9485863601</v>
+        <v>268652.2776710966</v>
       </c>
       <c r="AE18" t="n">
-        <v>273922.4018541181</v>
+        <v>367581.8984116069</v>
       </c>
       <c r="AF18" t="n">
         <v>1.110738766910017e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.13194444444444</v>
       </c>
       <c r="AH18" t="n">
-        <v>247779.6322737469</v>
+        <v>332500.3979316369</v>
       </c>
     </row>
   </sheetData>
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.090465665552</v>
+        <v>428.5765063167412</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.6983847520891</v>
+        <v>586.3972834036033</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.6387494354166</v>
+        <v>530.432349689319</v>
       </c>
       <c r="AD2" t="n">
-        <v>322090.465665552</v>
+        <v>428576.5063167412</v>
       </c>
       <c r="AE2" t="n">
-        <v>440698.3847520891</v>
+        <v>586397.2834036032</v>
       </c>
       <c r="AF2" t="n">
         <v>7.973707232541239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.53935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>398638.7494354167</v>
+        <v>530432.349689319</v>
       </c>
     </row>
     <row r="3">
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.5780071476844</v>
+        <v>323.6687840798795</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.6964664643734</v>
+        <v>442.8579096370663</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.8033300159539</v>
+        <v>400.5921722962838</v>
       </c>
       <c r="AD3" t="n">
-        <v>236578.0071476844</v>
+        <v>323668.7840798795</v>
       </c>
       <c r="AE3" t="n">
-        <v>323696.4664643735</v>
+        <v>442857.9096370663</v>
       </c>
       <c r="AF3" t="n">
         <v>1.018677117815527e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.86342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>292803.3300159539</v>
+        <v>400592.1722962838</v>
       </c>
     </row>
     <row r="4">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.8295588640014</v>
+        <v>295.2739520648689</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.0440123994883</v>
+        <v>404.0068477825508</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.5991101635678</v>
+        <v>365.4490012573556</v>
       </c>
       <c r="AD4" t="n">
-        <v>217829.5588640014</v>
+        <v>295273.9520648689</v>
       </c>
       <c r="AE4" t="n">
-        <v>298044.0123994884</v>
+        <v>404006.8477825508</v>
       </c>
       <c r="AF4" t="n">
         <v>1.10090843116848e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.60185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>269599.1101635678</v>
+        <v>365449.0012573556</v>
       </c>
     </row>
     <row r="5">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.2752460866922</v>
+        <v>281.005935748528</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.8126007354778</v>
+        <v>384.4847183980785</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.9624156829271</v>
+        <v>347.7900365018564</v>
       </c>
       <c r="AD5" t="n">
-        <v>213275.2460866922</v>
+        <v>281005.935748528</v>
       </c>
       <c r="AE5" t="n">
-        <v>291812.6007354778</v>
+        <v>384484.7183980785</v>
       </c>
       <c r="AF5" t="n">
         <v>1.145021331673412e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>263962.4156829271</v>
+        <v>347790.0365018565</v>
       </c>
     </row>
     <row r="6">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>200.4273436715551</v>
+        <v>277.8375714536417</v>
       </c>
       <c r="AB6" t="n">
-        <v>274.2335338416449</v>
+        <v>380.1496225914473</v>
       </c>
       <c r="AC6" t="n">
-        <v>248.0610702610608</v>
+        <v>343.8686761546651</v>
       </c>
       <c r="AD6" t="n">
-        <v>200427.3436715551</v>
+        <v>277837.5714536417</v>
       </c>
       <c r="AE6" t="n">
-        <v>274233.5338416449</v>
+        <v>380149.6225914473</v>
       </c>
       <c r="AF6" t="n">
         <v>1.174118337354599e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.62962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>248061.0702610608</v>
+        <v>343868.6761546651</v>
       </c>
     </row>
     <row r="7">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>198.6393317799519</v>
+        <v>266.3358560230068</v>
       </c>
       <c r="AB7" t="n">
-        <v>271.7870970900372</v>
+        <v>364.4124681193797</v>
       </c>
       <c r="AC7" t="n">
-        <v>245.8481179994302</v>
+        <v>329.6334536181766</v>
       </c>
       <c r="AD7" t="n">
-        <v>198639.3317799519</v>
+        <v>266335.8560230068</v>
       </c>
       <c r="AE7" t="n">
-        <v>271787.0970900372</v>
+        <v>364412.4681193797</v>
       </c>
       <c r="AF7" t="n">
         <v>1.190632854092571e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.4212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>245848.1179994302</v>
+        <v>329633.4536181766</v>
       </c>
     </row>
     <row r="8">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>197.1360020835017</v>
+        <v>264.8325263265564</v>
       </c>
       <c r="AB8" t="n">
-        <v>269.7301750771296</v>
+        <v>362.355546106471</v>
       </c>
       <c r="AC8" t="n">
-        <v>243.9875057365256</v>
+        <v>327.7728413552717</v>
       </c>
       <c r="AD8" t="n">
-        <v>197136.0020835017</v>
+        <v>264832.5263265565</v>
       </c>
       <c r="AE8" t="n">
-        <v>269730.1750771296</v>
+        <v>362355.546106471</v>
       </c>
       <c r="AF8" t="n">
         <v>1.201776072484499e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.29398148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>243987.5057365256</v>
+        <v>327772.8413552718</v>
       </c>
     </row>
     <row r="9">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>195.8046083870732</v>
+        <v>263.501132630128</v>
       </c>
       <c r="AB9" t="n">
-        <v>267.9085034847326</v>
+        <v>360.5338745140732</v>
       </c>
       <c r="AC9" t="n">
-        <v>242.3396919241743</v>
+        <v>326.1250275429202</v>
       </c>
       <c r="AD9" t="n">
-        <v>195804.6083870732</v>
+        <v>263501.1326301281</v>
       </c>
       <c r="AE9" t="n">
-        <v>267908.5034847326</v>
+        <v>360533.8745140732</v>
       </c>
       <c r="AF9" t="n">
         <v>1.208126668319047e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.21296296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>242339.6919241743</v>
+        <v>326125.0275429202</v>
       </c>
     </row>
     <row r="10">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>194.2195718269617</v>
+        <v>261.9160960700165</v>
       </c>
       <c r="AB10" t="n">
-        <v>265.7397865363113</v>
+        <v>358.3651575656507</v>
       </c>
       <c r="AC10" t="n">
-        <v>240.3779542774963</v>
+        <v>324.1632898962418</v>
       </c>
       <c r="AD10" t="n">
-        <v>194219.5718269617</v>
+        <v>261916.0960700165</v>
       </c>
       <c r="AE10" t="n">
-        <v>265739.7865363113</v>
+        <v>358365.1575656508</v>
       </c>
       <c r="AF10" t="n">
         <v>1.220694319421528e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.07407407407407</v>
       </c>
       <c r="AH10" t="n">
-        <v>240377.9542774963</v>
+        <v>324163.2898962418</v>
       </c>
     </row>
     <row r="11">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>192.9580207845713</v>
+        <v>260.6545450276261</v>
       </c>
       <c r="AB11" t="n">
-        <v>264.0136767444096</v>
+        <v>356.6390477737481</v>
       </c>
       <c r="AC11" t="n">
-        <v>238.8165819815228</v>
+        <v>322.6019176002681</v>
       </c>
       <c r="AD11" t="n">
-        <v>192958.0207845713</v>
+        <v>260654.545027626</v>
       </c>
       <c r="AE11" t="n">
-        <v>264013.6767444095</v>
+        <v>356639.0477737481</v>
       </c>
       <c r="AF11" t="n">
         <v>1.226495915148884e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.00462962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>238816.5819815228</v>
+        <v>322601.917600268</v>
       </c>
     </row>
     <row r="12">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>192.4137450553899</v>
+        <v>260.1102692984447</v>
       </c>
       <c r="AB12" t="n">
-        <v>263.2689746799935</v>
+        <v>355.8943457093316</v>
       </c>
       <c r="AC12" t="n">
-        <v>238.1429532369385</v>
+        <v>321.9282888556836</v>
       </c>
       <c r="AD12" t="n">
-        <v>192413.7450553899</v>
+        <v>260110.2692984447</v>
       </c>
       <c r="AE12" t="n">
-        <v>263268.9746799935</v>
+        <v>355894.3457093316</v>
       </c>
       <c r="AF12" t="n">
         <v>1.225086320279066e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.0162037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>238142.9532369385</v>
+        <v>321928.2888556836</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.6134413496484</v>
+        <v>282.3899754597587</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.0658697130619</v>
+        <v>386.3784225905068</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.955021796683</v>
+        <v>349.5030082239902</v>
       </c>
       <c r="AD2" t="n">
-        <v>207613.4413496484</v>
+        <v>282389.9754597587</v>
       </c>
       <c r="AE2" t="n">
-        <v>284065.869713062</v>
+        <v>386378.4225905068</v>
       </c>
       <c r="AF2" t="n">
         <v>1.470832524088852e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.2962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>256955.021796683</v>
+        <v>349503.0082239902</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.8436294642661</v>
+        <v>243.2646818346464</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.3334997400937</v>
+        <v>332.8454697663378</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.1100920456815</v>
+        <v>301.0791652834884</v>
       </c>
       <c r="AD3" t="n">
-        <v>177843.6294642661</v>
+        <v>243264.6818346464</v>
       </c>
       <c r="AE3" t="n">
-        <v>243333.4997400937</v>
+        <v>332845.4697663378</v>
       </c>
       <c r="AF3" t="n">
         <v>1.667395014213006e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>220110.0920456815</v>
+        <v>301079.1652834883</v>
       </c>
     </row>
     <row r="4">
@@ -8114,28 +8114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.5641484479884</v>
+        <v>230.0525206260732</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.1639279642764</v>
+        <v>314.7680079213621</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.6745986989883</v>
+        <v>284.7269910251143</v>
       </c>
       <c r="AD4" t="n">
-        <v>164564.1484479884</v>
+        <v>230052.5206260732</v>
       </c>
       <c r="AE4" t="n">
-        <v>225163.9279642764</v>
+        <v>314768.0079213621</v>
       </c>
       <c r="AF4" t="n">
         <v>1.731348756653569e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.84259259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>203674.5986989883</v>
+        <v>284726.9910251143</v>
       </c>
     </row>
     <row r="5">
@@ -8220,28 +8220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.3280245817728</v>
+        <v>229.8163967598576</v>
       </c>
       <c r="AB5" t="n">
-        <v>224.8408528734705</v>
+        <v>314.4449328305562</v>
       </c>
       <c r="AC5" t="n">
-        <v>203.3823574414101</v>
+        <v>284.4347497675361</v>
       </c>
       <c r="AD5" t="n">
-        <v>164328.0245817728</v>
+        <v>229816.3967598575</v>
       </c>
       <c r="AE5" t="n">
-        <v>224840.8528734705</v>
+        <v>314444.9328305562</v>
       </c>
       <c r="AF5" t="n">
         <v>1.734579580429712e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.81944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>203382.3574414101</v>
+        <v>284434.7497675361</v>
       </c>
     </row>
   </sheetData>
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.0334828440576</v>
+        <v>331.7908532912878</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.3196684063206</v>
+        <v>453.9708830525198</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.3670544392312</v>
+        <v>410.6445391261225</v>
       </c>
       <c r="AD2" t="n">
-        <v>237033.4828440576</v>
+        <v>331790.8532912878</v>
       </c>
       <c r="AE2" t="n">
-        <v>324319.6684063206</v>
+        <v>453970.8830525198</v>
       </c>
       <c r="AF2" t="n">
         <v>1.160748081895182e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.88194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>293367.0544392312</v>
+        <v>410644.5391261225</v>
       </c>
     </row>
     <row r="3">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.7721611708207</v>
+        <v>267.1169976812517</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.7053283564142</v>
+        <v>365.4812605977283</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.4878373695084</v>
+        <v>330.6002420424512</v>
       </c>
       <c r="AD3" t="n">
-        <v>200772.1611708207</v>
+        <v>267116.9976812517</v>
       </c>
       <c r="AE3" t="n">
-        <v>274705.3283564142</v>
+        <v>365481.2605977283</v>
       </c>
       <c r="AF3" t="n">
         <v>1.368903990337455e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.16203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>248487.8373695084</v>
+        <v>330600.2420424512</v>
       </c>
     </row>
     <row r="4">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.1053146358934</v>
+        <v>252.4159857275403</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.6375018717346</v>
+        <v>345.3666874796231</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.3352560791489</v>
+        <v>312.4053755518612</v>
       </c>
       <c r="AD4" t="n">
-        <v>186105.3146358934</v>
+        <v>252415.9857275403</v>
       </c>
       <c r="AE4" t="n">
-        <v>254637.5018717346</v>
+        <v>345366.6874796231</v>
       </c>
       <c r="AF4" t="n">
         <v>1.440447495315589e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.40972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>230335.2560791489</v>
+        <v>312405.3755518612</v>
       </c>
     </row>
     <row r="5">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.3097657539816</v>
+        <v>249.6204368456284</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.8125085605923</v>
+        <v>341.5416941684808</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.875314761209</v>
+        <v>308.9454342339212</v>
       </c>
       <c r="AD5" t="n">
-        <v>183309.7657539816</v>
+        <v>249620.4368456284</v>
       </c>
       <c r="AE5" t="n">
-        <v>250812.5085605923</v>
+        <v>341541.6941684808</v>
       </c>
       <c r="AF5" t="n">
         <v>1.475600483472306e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>226875.314761209</v>
+        <v>308945.4342339212</v>
       </c>
     </row>
     <row r="6">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>171.2432947270898</v>
+        <v>237.6212856264411</v>
       </c>
       <c r="AB6" t="n">
-        <v>234.3026305664759</v>
+        <v>325.1239261052059</v>
       </c>
       <c r="AC6" t="n">
-        <v>211.9411163510865</v>
+        <v>294.0945549121178</v>
       </c>
       <c r="AD6" t="n">
-        <v>171243.2947270898</v>
+        <v>237621.2856264411</v>
       </c>
       <c r="AE6" t="n">
-        <v>234302.6305664759</v>
+        <v>325123.9261052059</v>
       </c>
       <c r="AF6" t="n">
         <v>1.50329242924474e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.80787037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>211941.1163510865</v>
+        <v>294094.5549121178</v>
       </c>
     </row>
     <row r="7">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.7895440943993</v>
+        <v>237.1675349937506</v>
       </c>
       <c r="AB7" t="n">
-        <v>233.681788932764</v>
+        <v>324.5030844714939</v>
       </c>
       <c r="AC7" t="n">
-        <v>211.3795269715391</v>
+        <v>293.5329655325704</v>
       </c>
       <c r="AD7" t="n">
-        <v>170789.5440943993</v>
+        <v>237167.5349937506</v>
       </c>
       <c r="AE7" t="n">
-        <v>233681.788932764</v>
+        <v>324503.084471494</v>
       </c>
       <c r="AF7" t="n">
         <v>1.508350155091778e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.76157407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>211379.5269715391</v>
+        <v>293532.9655325704</v>
       </c>
     </row>
   </sheetData>
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.606233099823</v>
+        <v>258.5146934027575</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.5863923792743</v>
+        <v>353.7112083770118</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.4799015978981</v>
+        <v>319.953507086308</v>
       </c>
       <c r="AD2" t="n">
-        <v>184606.233099823</v>
+        <v>258514.6934027575</v>
       </c>
       <c r="AE2" t="n">
-        <v>252586.3923792743</v>
+        <v>353711.2083770118</v>
       </c>
       <c r="AF2" t="n">
         <v>1.80535393308439e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>228479.9015978981</v>
+        <v>319953.507086308</v>
       </c>
     </row>
     <row r="3">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.9073660398065</v>
+        <v>232.8489807316614</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.424068713779</v>
+        <v>318.5942480089386</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.6734207523953</v>
+        <v>288.1880601288955</v>
       </c>
       <c r="AD3" t="n">
-        <v>158907.3660398065</v>
+        <v>232848.9807316613</v>
       </c>
       <c r="AE3" t="n">
-        <v>217424.068713779</v>
+        <v>318594.2480089386</v>
       </c>
       <c r="AF3" t="n">
         <v>1.968909871600931e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.94675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>196673.4207523953</v>
+        <v>288188.0601288954</v>
       </c>
     </row>
     <row r="4">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.9518181199558</v>
+        <v>232.8934328118106</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.4848900109265</v>
+        <v>318.655069306086</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.7284373503063</v>
+        <v>288.2430767268065</v>
       </c>
       <c r="AD4" t="n">
-        <v>158951.8181199558</v>
+        <v>232893.4328118105</v>
       </c>
       <c r="AE4" t="n">
-        <v>217484.8900109265</v>
+        <v>318655.0693060861</v>
       </c>
       <c r="AF4" t="n">
         <v>1.978161041437254e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.87731481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>196728.4373503063</v>
+        <v>288243.0767268065</v>
       </c>
     </row>
   </sheetData>
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.4785448236532</v>
+        <v>448.2094407030432</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.2260099978886</v>
+        <v>613.2599303748773</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.634615359513</v>
+        <v>554.7312633356163</v>
       </c>
       <c r="AD2" t="n">
-        <v>341478.5448236532</v>
+        <v>448209.4407030432</v>
       </c>
       <c r="AE2" t="n">
-        <v>467226.0099978886</v>
+        <v>613259.9303748773</v>
       </c>
       <c r="AF2" t="n">
         <v>7.522480736617399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.2800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>422634.615359513</v>
+        <v>554731.2633356163</v>
       </c>
     </row>
     <row r="3">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.9285704839603</v>
+        <v>338.2074435469191</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.3315403232286</v>
+        <v>462.7503449202577</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.5644599837253</v>
+        <v>418.5861014752558</v>
       </c>
       <c r="AD3" t="n">
-        <v>250928.5704839603</v>
+        <v>338207.4435469191</v>
       </c>
       <c r="AE3" t="n">
-        <v>343331.5403232286</v>
+        <v>462750.3449202577</v>
       </c>
       <c r="AF3" t="n">
         <v>9.764615246780826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.16435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>310564.4599837253</v>
+        <v>418586.1014752557</v>
       </c>
     </row>
     <row r="4">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.7799283901406</v>
+        <v>309.0919558420227</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.449082263153</v>
+        <v>422.9132501577552</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.4883277455091</v>
+        <v>382.5510031251728</v>
       </c>
       <c r="AD4" t="n">
-        <v>221779.9283901406</v>
+        <v>309091.9558420227</v>
       </c>
       <c r="AE4" t="n">
-        <v>303449.082263153</v>
+        <v>422913.2501577552</v>
       </c>
       <c r="AF4" t="n">
         <v>1.056851132688592e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.85648148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>274488.3277455092</v>
+        <v>382551.0031251728</v>
       </c>
     </row>
     <row r="5">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>216.4920176931059</v>
+        <v>284.4213641959723</v>
       </c>
       <c r="AB5" t="n">
-        <v>296.2139295613183</v>
+        <v>389.1578582779405</v>
       </c>
       <c r="AC5" t="n">
-        <v>267.9436878629347</v>
+        <v>352.0171784703776</v>
       </c>
       <c r="AD5" t="n">
-        <v>216492.0176931059</v>
+        <v>284421.3641959723</v>
       </c>
       <c r="AE5" t="n">
-        <v>296213.9295613182</v>
+        <v>389157.8582779405</v>
       </c>
       <c r="AF5" t="n">
         <v>1.105270233766967e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.16203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>267943.6878629347</v>
+        <v>352017.1784703776</v>
       </c>
     </row>
     <row r="6">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>203.8896547693568</v>
+        <v>281.5269189411927</v>
       </c>
       <c r="AB6" t="n">
-        <v>278.9708206320402</v>
+        <v>385.1975505864385</v>
       </c>
       <c r="AC6" t="n">
-        <v>252.346237049006</v>
+        <v>348.4348369866257</v>
       </c>
       <c r="AD6" t="n">
-        <v>203889.6547693568</v>
+        <v>281526.9189411927</v>
       </c>
       <c r="AE6" t="n">
-        <v>278970.8206320402</v>
+        <v>385197.5505864385</v>
       </c>
       <c r="AF6" t="n">
         <v>1.131839925895801e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.80324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>252346.237049006</v>
+        <v>348434.8369866257</v>
       </c>
     </row>
     <row r="7">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>201.6758259601742</v>
+        <v>279.31309013201</v>
       </c>
       <c r="AB7" t="n">
-        <v>275.9417623880839</v>
+        <v>382.1684923424806</v>
       </c>
       <c r="AC7" t="n">
-        <v>249.606267872542</v>
+        <v>345.6948678101613</v>
       </c>
       <c r="AD7" t="n">
-        <v>201675.8259601742</v>
+        <v>279313.0901320099</v>
       </c>
       <c r="AE7" t="n">
-        <v>275941.7623880839</v>
+        <v>382168.4923424806</v>
       </c>
       <c r="AF7" t="n">
         <v>1.150445950084112e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.57175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>249606.267872542</v>
+        <v>345694.8678101613</v>
       </c>
     </row>
     <row r="8">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>200.5244309313212</v>
+        <v>268.4196120154066</v>
       </c>
       <c r="AB8" t="n">
-        <v>274.3663729136443</v>
+        <v>367.2635549970075</v>
       </c>
       <c r="AC8" t="n">
-        <v>248.1812313584695</v>
+        <v>332.2124367657292</v>
       </c>
       <c r="AD8" t="n">
-        <v>200524.4309313212</v>
+        <v>268419.6120154066</v>
       </c>
       <c r="AE8" t="n">
-        <v>274366.3729136444</v>
+        <v>367263.5549970075</v>
       </c>
       <c r="AF8" t="n">
         <v>1.158757123534767e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.46759259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>248181.2313584695</v>
+        <v>332212.4367657292</v>
       </c>
     </row>
     <row r="9">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>198.6618255185662</v>
+        <v>266.5570066026515</v>
       </c>
       <c r="AB9" t="n">
-        <v>271.8178740155628</v>
+        <v>364.7150560989247</v>
       </c>
       <c r="AC9" t="n">
-        <v>245.8759576183793</v>
+        <v>329.9071630256387</v>
       </c>
       <c r="AD9" t="n">
-        <v>198661.8255185662</v>
+        <v>266557.0066026515</v>
       </c>
       <c r="AE9" t="n">
-        <v>271817.8740155628</v>
+        <v>364715.0560989247</v>
       </c>
       <c r="AF9" t="n">
         <v>1.172584946958765e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.29398148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>245875.9576183793</v>
+        <v>329907.1630256387</v>
       </c>
     </row>
     <row r="10">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>197.33976711233</v>
+        <v>265.2349481964153</v>
       </c>
       <c r="AB10" t="n">
-        <v>270.0089753790509</v>
+        <v>362.9061574624119</v>
       </c>
       <c r="AC10" t="n">
-        <v>244.2396977289304</v>
+        <v>328.2709031361894</v>
       </c>
       <c r="AD10" t="n">
-        <v>197339.76711233</v>
+        <v>265234.9481964153</v>
       </c>
       <c r="AE10" t="n">
-        <v>270008.9753790509</v>
+        <v>362906.1574624119</v>
       </c>
       <c r="AF10" t="n">
         <v>1.178622855197306e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.21296296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>244239.6977289304</v>
+        <v>328270.9031361894</v>
       </c>
     </row>
     <row r="11">
@@ -10807,28 +10807,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>196.3979943282756</v>
+        <v>264.2931754123609</v>
       </c>
       <c r="AB11" t="n">
-        <v>268.7204003078253</v>
+        <v>361.6175823911856</v>
       </c>
       <c r="AC11" t="n">
-        <v>243.0741024539757</v>
+        <v>327.1053078612345</v>
       </c>
       <c r="AD11" t="n">
-        <v>196397.9943282756</v>
+        <v>264293.1754123609</v>
       </c>
       <c r="AE11" t="n">
-        <v>268720.4003078253</v>
+        <v>361617.5823911856</v>
       </c>
       <c r="AF11" t="n">
         <v>1.182923235885188e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>243074.1024539756</v>
+        <v>327105.3078612345</v>
       </c>
     </row>
     <row r="12">
@@ -10913,28 +10913,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>195.0707659038052</v>
+        <v>262.9659469878905</v>
       </c>
       <c r="AB12" t="n">
-        <v>266.9044278242802</v>
+        <v>359.8016099076395</v>
       </c>
       <c r="AC12" t="n">
-        <v>241.4314438355262</v>
+        <v>325.4626492427848</v>
       </c>
       <c r="AD12" t="n">
-        <v>195070.7659038052</v>
+        <v>262965.9469878905</v>
       </c>
       <c r="AE12" t="n">
-        <v>266904.4278242802</v>
+        <v>359801.6099076396</v>
       </c>
       <c r="AF12" t="n">
         <v>1.189598237558971e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.08564814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>241431.4438355262</v>
+        <v>325462.6492427848</v>
       </c>
     </row>
     <row r="13">
@@ -11019,28 +11019,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>194.3655167905676</v>
+        <v>262.2606978746529</v>
       </c>
       <c r="AB13" t="n">
-        <v>265.9394748741541</v>
+        <v>358.836656957513</v>
       </c>
       <c r="AC13" t="n">
-        <v>240.5585846406398</v>
+        <v>324.5897900478983</v>
       </c>
       <c r="AD13" t="n">
-        <v>194365.5167905676</v>
+        <v>262260.6978746529</v>
       </c>
       <c r="AE13" t="n">
-        <v>265939.4748741541</v>
+        <v>358836.656957513</v>
       </c>
       <c r="AF13" t="n">
         <v>1.194999052362271e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>240558.5846406398</v>
+        <v>324589.7900478983</v>
       </c>
     </row>
     <row r="14">
@@ -11125,28 +11125,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>194.5439421181294</v>
+        <v>262.4391232022147</v>
       </c>
       <c r="AB14" t="n">
-        <v>266.183604278894</v>
+        <v>359.080786362253</v>
       </c>
       <c r="AC14" t="n">
-        <v>240.7794146776291</v>
+        <v>324.8106200848876</v>
       </c>
       <c r="AD14" t="n">
-        <v>194543.9421181294</v>
+        <v>262439.1232022147</v>
       </c>
       <c r="AE14" t="n">
-        <v>266183.604278894</v>
+        <v>359080.786362253</v>
       </c>
       <c r="AF14" t="n">
         <v>1.195158325721082e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>240779.4146776291</v>
+        <v>324810.6200848876</v>
       </c>
     </row>
   </sheetData>
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.0479870669279</v>
+        <v>241.5299685531741</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.9306696588195</v>
+        <v>330.4719585244798</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.9864092563697</v>
+        <v>298.9321786233086</v>
       </c>
       <c r="AD2" t="n">
-        <v>168047.9870669279</v>
+        <v>241529.9685531741</v>
       </c>
       <c r="AE2" t="n">
-        <v>229930.6696588195</v>
+        <v>330471.9585244798</v>
       </c>
       <c r="AF2" t="n">
         <v>2.052008975683924e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.6412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>207986.4092563697</v>
+        <v>298932.1786233086</v>
       </c>
     </row>
     <row r="3">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.0513446467828</v>
+        <v>229.310653380977</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.8305312970459</v>
+        <v>313.7529524277491</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.2775823452622</v>
+        <v>283.8088110031721</v>
       </c>
       <c r="AD3" t="n">
-        <v>165051.3446467828</v>
+        <v>229310.653380977</v>
       </c>
       <c r="AE3" t="n">
-        <v>225830.5312970459</v>
+        <v>313752.9524277491</v>
       </c>
       <c r="AF3" t="n">
         <v>2.141398286489078e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>204277.5823452622</v>
+        <v>283808.8110031721</v>
       </c>
     </row>
   </sheetData>
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.3576275996667</v>
+        <v>374.2420654355972</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.8611863536966</v>
+        <v>512.0545043236669</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.5123292701314</v>
+        <v>463.1847411040259</v>
       </c>
       <c r="AD2" t="n">
-        <v>278357.6275996667</v>
+        <v>374242.0654355972</v>
       </c>
       <c r="AE2" t="n">
-        <v>380861.1863536966</v>
+        <v>512054.5043236669</v>
       </c>
       <c r="AF2" t="n">
         <v>9.497506495616818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.66435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>344512.3292701314</v>
+        <v>463184.7411040259</v>
       </c>
     </row>
     <row r="3">
@@ -11931,28 +11931,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.56396359935</v>
+        <v>299.7916268141285</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.2076367736136</v>
+        <v>410.1881296802314</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.3197500360201</v>
+        <v>371.040350286205</v>
       </c>
       <c r="AD3" t="n">
-        <v>213563.96359935</v>
+        <v>299791.6268141285</v>
       </c>
       <c r="AE3" t="n">
-        <v>292207.6367736136</v>
+        <v>410188.1296802314</v>
       </c>
       <c r="AF3" t="n">
         <v>1.169819940154237e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.96064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>264319.7500360201</v>
+        <v>371040.350286205</v>
       </c>
     </row>
     <row r="4">
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.9027700623227</v>
+        <v>273.5761549122887</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.411056736282</v>
+        <v>374.3189644791387</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.6988436022431</v>
+        <v>338.5944878692152</v>
       </c>
       <c r="AD4" t="n">
-        <v>196902.7700623227</v>
+        <v>273576.1549122887</v>
       </c>
       <c r="AE4" t="n">
-        <v>269411.056736282</v>
+        <v>374318.9644791387</v>
       </c>
       <c r="AF4" t="n">
         <v>1.249522454489077e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.94212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>243698.8436022431</v>
+        <v>338594.4878692152</v>
       </c>
     </row>
     <row r="5">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.8101048693942</v>
+        <v>270.4834897193601</v>
       </c>
       <c r="AB5" t="n">
-        <v>265.1795357805604</v>
+        <v>370.0874435234149</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.8711730675573</v>
+        <v>334.7668173345287</v>
       </c>
       <c r="AD5" t="n">
-        <v>193810.1048693942</v>
+        <v>270483.4897193601</v>
       </c>
       <c r="AE5" t="n">
-        <v>265179.5357805604</v>
+        <v>370087.443523415</v>
       </c>
       <c r="AF5" t="n">
         <v>1.285130440144339e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.52546296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>239871.1730675573</v>
+        <v>334766.8173345287</v>
       </c>
     </row>
     <row r="6">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>191.1630014556306</v>
+        <v>258.2147881330798</v>
       </c>
       <c r="AB6" t="n">
-        <v>261.5576521078902</v>
+        <v>353.3008647561523</v>
       </c>
       <c r="AC6" t="n">
-        <v>236.5949568892599</v>
+        <v>319.5823260847023</v>
       </c>
       <c r="AD6" t="n">
-        <v>191163.0014556306</v>
+        <v>258214.7881330798</v>
       </c>
       <c r="AE6" t="n">
-        <v>261557.6521078903</v>
+        <v>353300.8647561523</v>
       </c>
       <c r="AF6" t="n">
         <v>1.311929200531012e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.23611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>236594.9568892599</v>
+        <v>319582.3260847023</v>
       </c>
     </row>
     <row r="7">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>189.3021688340174</v>
+        <v>256.3539555114634</v>
       </c>
       <c r="AB7" t="n">
-        <v>259.011578820859</v>
+        <v>350.7547914689495</v>
       </c>
       <c r="AC7" t="n">
-        <v>234.2918772633058</v>
+        <v>317.2792464586993</v>
       </c>
       <c r="AD7" t="n">
-        <v>189302.1688340174</v>
+        <v>256353.9555114634</v>
       </c>
       <c r="AE7" t="n">
-        <v>259011.578820859</v>
+        <v>350754.7914689495</v>
       </c>
       <c r="AF7" t="n">
         <v>1.32919270059949e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.05092592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>234291.8772633058</v>
+        <v>317279.2464586993</v>
       </c>
     </row>
     <row r="8">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>177.9834139792609</v>
+        <v>254.6226334104426</v>
       </c>
       <c r="AB8" t="n">
-        <v>243.524759080367</v>
+        <v>348.3859201897937</v>
       </c>
       <c r="AC8" t="n">
-        <v>220.2830978629534</v>
+        <v>315.1364569296937</v>
       </c>
       <c r="AD8" t="n">
-        <v>177983.4139792609</v>
+        <v>254622.6334104426</v>
       </c>
       <c r="AE8" t="n">
-        <v>243524.759080367</v>
+        <v>348385.9201897937</v>
       </c>
       <c r="AF8" t="n">
         <v>1.34093833429094e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.92361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>220283.0978629534</v>
+        <v>315136.4569296937</v>
       </c>
     </row>
     <row r="9">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>176.7297692409408</v>
+        <v>243.8488757260912</v>
       </c>
       <c r="AB9" t="n">
-        <v>241.8094670424958</v>
+        <v>333.6447896214278</v>
       </c>
       <c r="AC9" t="n">
-        <v>218.7315108897486</v>
+        <v>301.8021991734612</v>
       </c>
       <c r="AD9" t="n">
-        <v>176729.7692409408</v>
+        <v>243848.8757260912</v>
       </c>
       <c r="AE9" t="n">
-        <v>241809.4670424958</v>
+        <v>333644.7896214278</v>
       </c>
       <c r="AF9" t="n">
         <v>1.34824708712367e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>218731.5108897486</v>
+        <v>301802.1991734612</v>
       </c>
     </row>
   </sheetData>
@@ -12864,28 +12864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.2936571537513</v>
+        <v>410.4214865027</v>
       </c>
       <c r="AB2" t="n">
-        <v>416.3480062064644</v>
+        <v>561.5567843510855</v>
       </c>
       <c r="AC2" t="n">
-        <v>376.6123368422154</v>
+        <v>507.9625930025141</v>
       </c>
       <c r="AD2" t="n">
-        <v>304293.6571537514</v>
+        <v>410421.4865027</v>
       </c>
       <c r="AE2" t="n">
-        <v>416348.0062064644</v>
+        <v>561556.7843510855</v>
       </c>
       <c r="AF2" t="n">
         <v>8.419453633310967e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>376612.3368422154</v>
+        <v>507962.5930025141</v>
       </c>
     </row>
     <row r="3">
@@ -12970,28 +12970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.055043048867</v>
+        <v>318.8806915309586</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.5079474452814</v>
+        <v>436.3066301758976</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.2054345664009</v>
+        <v>394.6661377521107</v>
       </c>
       <c r="AD3" t="n">
-        <v>232055.043048867</v>
+        <v>318880.6915309586</v>
       </c>
       <c r="AE3" t="n">
-        <v>317507.9474452814</v>
+        <v>436306.6301758976</v>
       </c>
       <c r="AF3" t="n">
         <v>1.064687388909113e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.55092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>287205.4345664009</v>
+        <v>394666.1377521107</v>
       </c>
     </row>
     <row r="4">
@@ -13076,28 +13076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.0521846578538</v>
+        <v>291.1594228988108</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.8756423646512</v>
+        <v>398.3771674573343</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.924002111001</v>
+        <v>360.3566097210718</v>
       </c>
       <c r="AD4" t="n">
-        <v>214052.1846578538</v>
+        <v>291159.4228988108</v>
       </c>
       <c r="AE4" t="n">
-        <v>292875.6423646513</v>
+        <v>398377.1674573343</v>
       </c>
       <c r="AF4" t="n">
         <v>1.145721869840374e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>264924.0021110009</v>
+        <v>360356.6097210718</v>
       </c>
     </row>
     <row r="5">
@@ -13182,28 +13182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.2241608422279</v>
+        <v>277.3987188908891</v>
       </c>
       <c r="AB5" t="n">
-        <v>273.9555301307656</v>
+        <v>379.5491651542805</v>
       </c>
       <c r="AC5" t="n">
-        <v>247.8095988341671</v>
+        <v>343.3255255325542</v>
       </c>
       <c r="AD5" t="n">
-        <v>200224.1608422279</v>
+        <v>277398.7188908891</v>
       </c>
       <c r="AE5" t="n">
-        <v>273955.5301307656</v>
+        <v>379549.1651542805</v>
       </c>
       <c r="AF5" t="n">
         <v>1.187982851720519e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.83796296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>247809.5988341671</v>
+        <v>343325.5255325542</v>
       </c>
     </row>
     <row r="6">
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>197.8459669689566</v>
+        <v>275.0205250176178</v>
       </c>
       <c r="AB6" t="n">
-        <v>270.7015803548487</v>
+        <v>376.2952153783619</v>
       </c>
       <c r="AC6" t="n">
-        <v>244.8662014579154</v>
+        <v>340.382128156302</v>
       </c>
       <c r="AD6" t="n">
-        <v>197845.9669689566</v>
+        <v>275020.5250176178</v>
       </c>
       <c r="AE6" t="n">
-        <v>270701.5803548487</v>
+        <v>376295.2153783619</v>
       </c>
       <c r="AF6" t="n">
         <v>1.211115980180317e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.54861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>244866.2014579154</v>
+        <v>340382.128156302</v>
       </c>
     </row>
     <row r="7">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>195.8226567188055</v>
+        <v>263.3129699451131</v>
       </c>
       <c r="AB7" t="n">
-        <v>267.9331980084449</v>
+        <v>360.276422027284</v>
       </c>
       <c r="AC7" t="n">
-        <v>242.3620296372025</v>
+        <v>325.8921459601333</v>
       </c>
       <c r="AD7" t="n">
-        <v>195822.6567188055</v>
+        <v>263312.9699451131</v>
       </c>
       <c r="AE7" t="n">
-        <v>267933.1980084449</v>
+        <v>360276.4220272839</v>
       </c>
       <c r="AF7" t="n">
         <v>1.227274142982058e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.36342592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>242362.0296372025</v>
+        <v>325892.1459601333</v>
       </c>
     </row>
     <row r="8">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>194.2182696045068</v>
+        <v>261.7085828308144</v>
       </c>
       <c r="AB8" t="n">
-        <v>265.7380047780985</v>
+        <v>358.0812287969363</v>
       </c>
       <c r="AC8" t="n">
-        <v>240.3763425677865</v>
+        <v>323.906458890717</v>
       </c>
       <c r="AD8" t="n">
-        <v>194218.2696045068</v>
+        <v>261708.5828308143</v>
       </c>
       <c r="AE8" t="n">
-        <v>265738.0047780984</v>
+        <v>358081.2287969363</v>
       </c>
       <c r="AF8" t="n">
         <v>1.240127573146686e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.21296296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>240376.3425677865</v>
+        <v>323906.458890717</v>
       </c>
     </row>
     <row r="9">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>192.6208122503411</v>
+        <v>260.1111254766486</v>
       </c>
       <c r="AB9" t="n">
-        <v>263.5522931512855</v>
+        <v>355.8955171701222</v>
       </c>
       <c r="AC9" t="n">
-        <v>238.3992321909704</v>
+        <v>321.9293485139005</v>
       </c>
       <c r="AD9" t="n">
-        <v>192620.8122503411</v>
+        <v>260111.1254766486</v>
       </c>
       <c r="AE9" t="n">
-        <v>263552.2931512855</v>
+        <v>355895.5171701222</v>
       </c>
       <c r="AF9" t="n">
         <v>1.252950544945995e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH9" t="n">
-        <v>238399.2321909704</v>
+        <v>321929.3485139005</v>
       </c>
     </row>
     <row r="10">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>191.2992824437229</v>
+        <v>258.7895956700305</v>
       </c>
       <c r="AB10" t="n">
-        <v>261.744117768091</v>
+        <v>354.0873417869269</v>
       </c>
       <c r="AC10" t="n">
-        <v>236.7636265285573</v>
+        <v>320.2937428514872</v>
       </c>
       <c r="AD10" t="n">
-        <v>191299.2824437229</v>
+        <v>258789.5956700304</v>
       </c>
       <c r="AE10" t="n">
-        <v>261744.117768091</v>
+        <v>354087.3417869268</v>
       </c>
       <c r="AF10" t="n">
         <v>1.257564987291827e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.0162037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>236763.6265285573</v>
+        <v>320293.7428514872</v>
       </c>
     </row>
     <row r="11">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>180.8754539515366</v>
+        <v>258.0158465814135</v>
       </c>
       <c r="AB11" t="n">
-        <v>247.4817757582315</v>
+        <v>353.0286641483136</v>
       </c>
       <c r="AC11" t="n">
-        <v>223.8624624227916</v>
+        <v>319.336103920946</v>
       </c>
       <c r="AD11" t="n">
-        <v>180875.4539515366</v>
+        <v>258015.8465814135</v>
       </c>
       <c r="AE11" t="n">
-        <v>247481.7757582315</v>
+        <v>353028.6641483136</v>
       </c>
       <c r="AF11" t="n">
         <v>1.264905453333711e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.93518518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>223862.4624227916</v>
+        <v>319336.103920946</v>
       </c>
     </row>
     <row r="12">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>181.0245366184829</v>
+        <v>258.164929248363</v>
       </c>
       <c r="AB12" t="n">
-        <v>247.6857572402104</v>
+        <v>353.2326456304639</v>
       </c>
       <c r="AC12" t="n">
-        <v>224.0469761984202</v>
+        <v>319.5206176966236</v>
       </c>
       <c r="AD12" t="n">
-        <v>181024.5366184829</v>
+        <v>258164.929248363</v>
       </c>
       <c r="AE12" t="n">
-        <v>247685.7572402104</v>
+        <v>353232.645630464</v>
       </c>
       <c r="AF12" t="n">
         <v>1.265057745160307e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.93518518518519</v>
       </c>
       <c r="AH12" t="n">
-        <v>224046.9761984202</v>
+        <v>319520.6176966236</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.8109585496259</v>
+        <v>487.9649782708803</v>
       </c>
       <c r="AB2" t="n">
-        <v>507.3599125125284</v>
+        <v>667.6552107657261</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.9381945464414</v>
+        <v>603.9351345102182</v>
       </c>
       <c r="AD2" t="n">
-        <v>370810.9585496259</v>
+        <v>487964.9782708803</v>
       </c>
       <c r="AE2" t="n">
-        <v>507359.9125125284</v>
+        <v>667655.2107657262</v>
       </c>
       <c r="AF2" t="n">
         <v>6.757877076854849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.71527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>458938.1945464414</v>
+        <v>603935.1345102182</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.4788972396702</v>
+        <v>348.3444120306108</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.3987187212333</v>
+        <v>476.6201924111318</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.3845252152214</v>
+        <v>431.1322301880539</v>
       </c>
       <c r="AD3" t="n">
-        <v>260478.8972396702</v>
+        <v>348344.4120306108</v>
       </c>
       <c r="AE3" t="n">
-        <v>356398.7187212333</v>
+        <v>476620.1924111317</v>
       </c>
       <c r="AF3" t="n">
         <v>9.001734815652394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.80092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>322384.5252152214</v>
+        <v>431132.2301880539</v>
       </c>
     </row>
     <row r="4">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.3210465605406</v>
+        <v>316.3564065670087</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.0813698865139</v>
+        <v>432.8527921246284</v>
       </c>
       <c r="AC4" t="n">
-        <v>294.960621602719</v>
+        <v>391.5419291569625</v>
       </c>
       <c r="AD4" t="n">
-        <v>238321.0465605406</v>
+        <v>316356.4065670087</v>
       </c>
       <c r="AE4" t="n">
-        <v>326081.3698865139</v>
+        <v>432852.7921246284</v>
       </c>
       <c r="AF4" t="n">
         <v>9.886375175407844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.20370370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>294960.621602719</v>
+        <v>391541.9291569624</v>
       </c>
     </row>
     <row r="5">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>223.1243463450524</v>
+        <v>301.2270261592247</v>
       </c>
       <c r="AB5" t="n">
-        <v>305.2885742205965</v>
+        <v>412.1521063895419</v>
       </c>
       <c r="AC5" t="n">
-        <v>276.1522611722781</v>
+        <v>372.8168878148376</v>
       </c>
       <c r="AD5" t="n">
-        <v>223124.3463450524</v>
+        <v>301227.0261592247</v>
       </c>
       <c r="AE5" t="n">
-        <v>305288.5742205965</v>
+        <v>412152.1063895419</v>
       </c>
       <c r="AF5" t="n">
         <v>1.03280031484313e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.50925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>276152.2611722781</v>
+        <v>372816.8878148376</v>
       </c>
     </row>
     <row r="6">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>220.1466432658692</v>
+        <v>288.4533337143466</v>
       </c>
       <c r="AB6" t="n">
-        <v>301.2143495006717</v>
+        <v>394.6745768509214</v>
       </c>
       <c r="AC6" t="n">
-        <v>272.4668747414112</v>
+        <v>357.0073891655163</v>
       </c>
       <c r="AD6" t="n">
-        <v>220146.6432658692</v>
+        <v>288453.3337143466</v>
       </c>
       <c r="AE6" t="n">
-        <v>301214.3495006717</v>
+        <v>394674.5768509214</v>
       </c>
       <c r="AF6" t="n">
         <v>1.057899735378914e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.15046296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>272466.8747414112</v>
+        <v>357007.3891655162</v>
       </c>
     </row>
     <row r="7">
@@ -14751,28 +14751,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>207.5915304562913</v>
+        <v>285.6600448516825</v>
       </c>
       <c r="AB7" t="n">
-        <v>284.0358902621305</v>
+        <v>390.852675797817</v>
       </c>
       <c r="AC7" t="n">
-        <v>256.9279035424719</v>
+        <v>353.5502449848484</v>
       </c>
       <c r="AD7" t="n">
-        <v>207591.5304562913</v>
+        <v>285660.0448516826</v>
       </c>
       <c r="AE7" t="n">
-        <v>284035.8902621305</v>
+        <v>390852.675797817</v>
       </c>
       <c r="AF7" t="n">
         <v>1.081005600174405e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>256927.9035424719</v>
+        <v>353550.2449848484</v>
       </c>
     </row>
     <row r="8">
@@ -14857,28 +14857,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>206.0681430424719</v>
+        <v>284.1366574378632</v>
       </c>
       <c r="AB8" t="n">
-        <v>281.9515243954343</v>
+        <v>388.7683099311199</v>
       </c>
       <c r="AC8" t="n">
-        <v>255.0424666286668</v>
+        <v>351.664808071043</v>
       </c>
       <c r="AD8" t="n">
-        <v>206068.1430424719</v>
+        <v>284136.6574378632</v>
       </c>
       <c r="AE8" t="n">
-        <v>281951.5243954343</v>
+        <v>388768.3099311198</v>
       </c>
       <c r="AF8" t="n">
         <v>1.091804027100997e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.67592592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>255042.4666286668</v>
+        <v>351664.8080710429</v>
       </c>
     </row>
     <row r="9">
@@ -14963,28 +14963,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>204.4998346355045</v>
+        <v>272.8738448916862</v>
       </c>
       <c r="AB9" t="n">
-        <v>279.8056956441388</v>
+        <v>373.3580329252189</v>
       </c>
       <c r="AC9" t="n">
-        <v>253.1014327617047</v>
+        <v>337.7252662741257</v>
       </c>
       <c r="AD9" t="n">
-        <v>204499.8346355045</v>
+        <v>272873.8448916862</v>
       </c>
       <c r="AE9" t="n">
-        <v>279805.6956441388</v>
+        <v>373358.0329252189</v>
       </c>
       <c r="AF9" t="n">
         <v>1.104042244284469e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.51388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>253101.4327617047</v>
+        <v>337725.2662741257</v>
       </c>
     </row>
     <row r="10">
@@ -15069,28 +15069,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>203.4595410152208</v>
+        <v>271.7320660449172</v>
       </c>
       <c r="AB10" t="n">
-        <v>278.3823200183519</v>
+        <v>371.795800735342</v>
       </c>
       <c r="AC10" t="n">
-        <v>251.8139021079221</v>
+        <v>336.3121313318439</v>
       </c>
       <c r="AD10" t="n">
-        <v>203459.5410152208</v>
+        <v>271732.0660449172</v>
       </c>
       <c r="AE10" t="n">
-        <v>278382.3200183519</v>
+        <v>371795.800735342</v>
       </c>
       <c r="AF10" t="n">
         <v>1.10945530188485e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>251813.9021079221</v>
+        <v>336312.1313318439</v>
       </c>
     </row>
     <row r="11">
@@ -15175,28 +15175,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>201.6629518401736</v>
+        <v>269.93547686987</v>
       </c>
       <c r="AB11" t="n">
-        <v>275.924147449133</v>
+        <v>369.3376281661219</v>
       </c>
       <c r="AC11" t="n">
-        <v>249.5903340786419</v>
+        <v>334.0885633025633</v>
       </c>
       <c r="AD11" t="n">
-        <v>201662.9518401736</v>
+        <v>269935.47686987</v>
       </c>
       <c r="AE11" t="n">
-        <v>275924.147449133</v>
+        <v>369337.6281661219</v>
       </c>
       <c r="AF11" t="n">
         <v>1.121056688762394e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.29398148148148</v>
       </c>
       <c r="AH11" t="n">
-        <v>249590.3340786419</v>
+        <v>334088.5633025633</v>
       </c>
     </row>
     <row r="12">
@@ -15281,28 +15281,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>201.2570585290323</v>
+        <v>269.5295835587287</v>
       </c>
       <c r="AB12" t="n">
-        <v>275.3687863140806</v>
+        <v>368.7822670310692</v>
       </c>
       <c r="AC12" t="n">
-        <v>249.0879758308645</v>
+        <v>333.5862050547858</v>
       </c>
       <c r="AD12" t="n">
-        <v>201257.0585290323</v>
+        <v>269529.5835587287</v>
       </c>
       <c r="AE12" t="n">
-        <v>275368.7863140806</v>
+        <v>368782.2670310693</v>
       </c>
       <c r="AF12" t="n">
         <v>1.120475235004809e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.30555555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>249087.9758308645</v>
+        <v>333586.2050547858</v>
       </c>
     </row>
     <row r="13">
@@ -15387,28 +15387,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>200.0104119963695</v>
+        <v>268.2829370260659</v>
       </c>
       <c r="AB13" t="n">
-        <v>273.6630695299289</v>
+        <v>367.0765502469166</v>
       </c>
       <c r="AC13" t="n">
-        <v>247.545050262603</v>
+        <v>332.0432794865241</v>
       </c>
       <c r="AD13" t="n">
-        <v>200010.4119963695</v>
+        <v>268282.9370260659</v>
       </c>
       <c r="AE13" t="n">
-        <v>273663.0695299288</v>
+        <v>367076.5502469166</v>
       </c>
       <c r="AF13" t="n">
         <v>1.127189641491215e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.21296296296296</v>
       </c>
       <c r="AH13" t="n">
-        <v>247545.050262603</v>
+        <v>332043.2794865241</v>
       </c>
     </row>
     <row r="14">
@@ -15493,28 +15493,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>199.1255326161223</v>
+        <v>267.3980576458187</v>
       </c>
       <c r="AB14" t="n">
-        <v>272.4523385237522</v>
+        <v>365.8658192407392</v>
       </c>
       <c r="AC14" t="n">
-        <v>246.4498697243838</v>
+        <v>330.9480989483047</v>
       </c>
       <c r="AD14" t="n">
-        <v>199125.5326161223</v>
+        <v>267398.0576458187</v>
       </c>
       <c r="AE14" t="n">
-        <v>272452.3385237522</v>
+        <v>365865.8192407392</v>
       </c>
       <c r="AF14" t="n">
         <v>1.132395037035316e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.15509259259259</v>
       </c>
       <c r="AH14" t="n">
-        <v>246449.8697243838</v>
+        <v>330948.0989483047</v>
       </c>
     </row>
     <row r="15">
@@ -15599,28 +15599,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>198.8119993249152</v>
+        <v>267.0845243546115</v>
       </c>
       <c r="AB15" t="n">
-        <v>272.0233484426103</v>
+        <v>365.4368291595971</v>
       </c>
       <c r="AC15" t="n">
-        <v>246.0618218544946</v>
+        <v>330.5600510784154</v>
       </c>
       <c r="AD15" t="n">
-        <v>198811.9993249152</v>
+        <v>267084.5243546115</v>
       </c>
       <c r="AE15" t="n">
-        <v>272023.3484426102</v>
+        <v>365436.8291595971</v>
       </c>
       <c r="AF15" t="n">
         <v>1.132464257720743e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.14351851851852</v>
       </c>
       <c r="AH15" t="n">
-        <v>246061.8218544946</v>
+        <v>330560.0510784154</v>
       </c>
     </row>
     <row r="16">
@@ -15705,28 +15705,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>198.7117637084499</v>
+        <v>266.9842887381463</v>
       </c>
       <c r="AB16" t="n">
-        <v>271.8862016500792</v>
+        <v>365.2996823670661</v>
       </c>
       <c r="AC16" t="n">
-        <v>245.937764159356</v>
+        <v>330.4359933832768</v>
       </c>
       <c r="AD16" t="n">
-        <v>198711.7637084499</v>
+        <v>266984.2887381463</v>
       </c>
       <c r="AE16" t="n">
-        <v>271886.2016500792</v>
+        <v>365299.682367066</v>
       </c>
       <c r="AF16" t="n">
         <v>1.132602699091597e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.14351851851852</v>
       </c>
       <c r="AH16" t="n">
-        <v>245937.764159356</v>
+        <v>330435.9933832767</v>
       </c>
     </row>
   </sheetData>
@@ -16002,28 +16002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.3668763005076</v>
+        <v>338.9772343956609</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.6677379118877</v>
+        <v>463.8036067202818</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.5822555569065</v>
+        <v>419.5388414473477</v>
       </c>
       <c r="AD2" t="n">
-        <v>253366.8763005076</v>
+        <v>338977.2343956609</v>
       </c>
       <c r="AE2" t="n">
-        <v>346667.7379118877</v>
+        <v>463803.6067202818</v>
       </c>
       <c r="AF2" t="n">
         <v>1.085041237098603e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.41435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>313582.2555569066</v>
+        <v>419538.8414473477</v>
       </c>
     </row>
     <row r="3">
@@ -16108,28 +16108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.1074818255398</v>
+        <v>281.1639325127056</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.6371053370467</v>
+        <v>384.7008965411516</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.8534938804125</v>
+        <v>347.9855829063626</v>
       </c>
       <c r="AD3" t="n">
-        <v>205107.4818255398</v>
+        <v>281163.9325127056</v>
       </c>
       <c r="AE3" t="n">
-        <v>280637.1053370467</v>
+        <v>384700.8965411516</v>
       </c>
       <c r="AF3" t="n">
         <v>1.29502861930253e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.42824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>253853.4938804125</v>
+        <v>347985.5829063626</v>
       </c>
     </row>
     <row r="4">
@@ -16214,28 +16214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.7389267538553</v>
+        <v>265.8626972487253</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.6091702751805</v>
+        <v>363.7650714101159</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.832435427952</v>
+        <v>329.0478435422179</v>
       </c>
       <c r="AD4" t="n">
-        <v>189738.9267538553</v>
+        <v>265862.6972487253</v>
       </c>
       <c r="AE4" t="n">
-        <v>259609.1702751805</v>
+        <v>363765.0714101159</v>
       </c>
       <c r="AF4" t="n">
         <v>1.371036216181473e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.57175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>234832.435427952</v>
+        <v>329047.843542218</v>
       </c>
     </row>
     <row r="5">
@@ -16320,28 +16320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>186.8021806138153</v>
+        <v>253.3730547305524</v>
       </c>
       <c r="AB5" t="n">
-        <v>255.5909846462839</v>
+        <v>346.676191512448</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.197739795917</v>
+        <v>313.5899023576941</v>
       </c>
       <c r="AD5" t="n">
-        <v>186802.1806138153</v>
+        <v>253373.0547305524</v>
       </c>
       <c r="AE5" t="n">
-        <v>255590.9846462839</v>
+        <v>346676.191512448</v>
       </c>
       <c r="AF5" t="n">
         <v>1.406364906193097e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>231197.739795917</v>
+        <v>313589.9023576941</v>
       </c>
     </row>
     <row r="6">
@@ -16426,28 +16426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>174.9862127810632</v>
+        <v>251.075817857149</v>
       </c>
       <c r="AB6" t="n">
-        <v>239.4238561738102</v>
+        <v>343.5330106753211</v>
       </c>
       <c r="AC6" t="n">
-        <v>216.5735793741437</v>
+        <v>310.7467022881795</v>
       </c>
       <c r="AD6" t="n">
-        <v>174986.2127810632</v>
+        <v>251075.8178571491</v>
       </c>
       <c r="AE6" t="n">
-        <v>239423.8561738102</v>
+        <v>343533.010675321</v>
       </c>
       <c r="AF6" t="n">
         <v>1.430440882043716e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.96990740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>216573.5793741437</v>
+        <v>310746.7022881795</v>
       </c>
     </row>
     <row r="7">
@@ -16532,28 +16532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>173.2634106807291</v>
+        <v>239.9016046051707</v>
       </c>
       <c r="AB7" t="n">
-        <v>237.0666423354698</v>
+        <v>328.2439591324753</v>
       </c>
       <c r="AC7" t="n">
-        <v>214.4413347161633</v>
+        <v>296.9168163662595</v>
       </c>
       <c r="AD7" t="n">
-        <v>173263.4106807291</v>
+        <v>239901.6046051707</v>
       </c>
       <c r="AE7" t="n">
-        <v>237066.6423354698</v>
+        <v>328243.9591324753</v>
       </c>
       <c r="AF7" t="n">
         <v>1.443885459239151e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.83101851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>214441.3347161633</v>
+        <v>296916.8163662595</v>
       </c>
     </row>
     <row r="8">
@@ -16638,28 +16638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>172.8857486229715</v>
+        <v>239.523942547413</v>
       </c>
       <c r="AB8" t="n">
-        <v>236.549908446772</v>
+        <v>327.7272252437775</v>
       </c>
       <c r="AC8" t="n">
-        <v>213.9739171845621</v>
+        <v>296.4493988346583</v>
       </c>
       <c r="AD8" t="n">
-        <v>172885.7486229715</v>
+        <v>239523.9425474131</v>
       </c>
       <c r="AE8" t="n">
-        <v>236549.908446772</v>
+        <v>327727.2252437775</v>
       </c>
       <c r="AF8" t="n">
         <v>1.44994328542092e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.77314814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>213973.9171845621</v>
+        <v>296449.3988346583</v>
       </c>
     </row>
   </sheetData>
@@ -16935,28 +16935,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.1937999835965</v>
+        <v>298.7680348826397</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.0694067009595</v>
+        <v>408.7876060418795</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.0992738510021</v>
+        <v>369.7734906582502</v>
       </c>
       <c r="AD2" t="n">
-        <v>214193.7999835965</v>
+        <v>298768.0348826397</v>
       </c>
       <c r="AE2" t="n">
-        <v>293069.4067009595</v>
+        <v>408787.6060418795</v>
       </c>
       <c r="AF2" t="n">
         <v>1.350512544469718e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.81712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>265099.273851002</v>
+        <v>369773.4906582502</v>
       </c>
     </row>
     <row r="3">
@@ -17041,28 +17041,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.5223650197546</v>
+        <v>257.6956665501473</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.7351521383547</v>
+        <v>352.5905797041893</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.9007797238302</v>
+        <v>318.9398296413135</v>
       </c>
       <c r="AD3" t="n">
-        <v>182522.3650197546</v>
+        <v>257695.6665501473</v>
       </c>
       <c r="AE3" t="n">
-        <v>249735.1521383548</v>
+        <v>352590.5797041893</v>
       </c>
       <c r="AF3" t="n">
         <v>1.550171276595541e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.65277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>225900.7797238302</v>
+        <v>318939.8296413135</v>
       </c>
     </row>
     <row r="4">
@@ -17147,28 +17147,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.3942463230755</v>
+        <v>244.1334600958979</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.0868780178178</v>
+        <v>334.0341705111733</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.7915689579529</v>
+        <v>302.1544180975891</v>
       </c>
       <c r="AD4" t="n">
-        <v>178394.2463230755</v>
+        <v>244133.4600958979</v>
       </c>
       <c r="AE4" t="n">
-        <v>244086.8780178177</v>
+        <v>334034.1705111733</v>
       </c>
       <c r="AF4" t="n">
         <v>1.616030791536986e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.05092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>220791.5689579529</v>
+        <v>302154.4180975892</v>
       </c>
     </row>
     <row r="5">
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.3272621723789</v>
+        <v>232.1337957529058</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.5762979450742</v>
+        <v>317.6157003692712</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.856735474602</v>
+        <v>287.3029037025574</v>
       </c>
       <c r="AD5" t="n">
-        <v>166327.2621723789</v>
+        <v>232133.7957529058</v>
       </c>
       <c r="AE5" t="n">
-        <v>227576.2979450742</v>
+        <v>317615.7003692712</v>
       </c>
       <c r="AF5" t="n">
         <v>1.648803553739672e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.77314814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>205856.735474602</v>
+        <v>287302.9037025574</v>
       </c>
     </row>
     <row r="6">
@@ -17359,28 +17359,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.5740141331448</v>
+        <v>232.3805477136716</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.9139148637221</v>
+        <v>317.9533172879191</v>
       </c>
       <c r="AC6" t="n">
-        <v>206.1621307083826</v>
+        <v>287.6082989363379</v>
       </c>
       <c r="AD6" t="n">
-        <v>166574.0141331448</v>
+        <v>232380.5477136716</v>
       </c>
       <c r="AE6" t="n">
-        <v>227913.914863722</v>
+        <v>317953.3172879191</v>
       </c>
       <c r="AF6" t="n">
         <v>1.647802708905937e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.78472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>206162.1307083826</v>
+        <v>287608.2989363379</v>
       </c>
     </row>
   </sheetData>
@@ -31997,28 +31997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.3507465470092</v>
+        <v>265.7984858882299</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.8145332246432</v>
+        <v>363.6772145938808</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.8273216327649</v>
+        <v>328.9683716572165</v>
       </c>
       <c r="AD2" t="n">
-        <v>191350.7465470092</v>
+        <v>265798.4858882299</v>
       </c>
       <c r="AE2" t="n">
-        <v>261814.5332246432</v>
+        <v>363677.2145938808</v>
       </c>
       <c r="AF2" t="n">
         <v>1.621170460525903e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>236827.3216327649</v>
+        <v>328968.3716572165</v>
       </c>
     </row>
     <row r="3">
@@ -32103,28 +32103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.9620858848315</v>
+        <v>238.0365380006923</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.6543564562111</v>
+        <v>325.6920927232978</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.068396822574</v>
+        <v>294.6084965056061</v>
       </c>
       <c r="AD3" t="n">
-        <v>172962.0858848315</v>
+        <v>238036.5380006923</v>
       </c>
       <c r="AE3" t="n">
-        <v>236654.3564562111</v>
+        <v>325692.0927232978</v>
       </c>
       <c r="AF3" t="n">
         <v>1.806717220367222e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.12037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>214068.3968225741</v>
+        <v>294608.4965056061</v>
       </c>
     </row>
     <row r="4">
@@ -32209,28 +32209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.7483488104227</v>
+        <v>226.8901207339879</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.3112266758482</v>
+        <v>310.4410728737764</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.1895938142262</v>
+        <v>280.8130125855774</v>
       </c>
       <c r="AD4" t="n">
-        <v>161748.3488104227</v>
+        <v>226890.1207339879</v>
       </c>
       <c r="AE4" t="n">
-        <v>221311.2266758482</v>
+        <v>310441.0728737764</v>
       </c>
       <c r="AF4" t="n">
         <v>1.841494840871985e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>200189.5938142262</v>
+        <v>280813.0125855774</v>
       </c>
     </row>
   </sheetData>
@@ -32506,28 +32506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.4862406375638</v>
+        <v>225.2429289951811</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.9525987103464</v>
+        <v>308.1873124677713</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.8651927984143</v>
+        <v>278.7743479095481</v>
       </c>
       <c r="AD2" t="n">
-        <v>161486.2406375638</v>
+        <v>225242.9289951811</v>
       </c>
       <c r="AE2" t="n">
-        <v>220952.5987103464</v>
+        <v>308187.3124677713</v>
       </c>
       <c r="AF2" t="n">
         <v>2.347867029051848e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>199865.1927984143</v>
+        <v>278774.3479095481</v>
       </c>
     </row>
     <row r="3">
@@ -32612,28 +32612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.7076912802325</v>
+        <v>225.4643796378499</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.2555972493584</v>
+        <v>308.4903110067833</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.1392735821243</v>
+        <v>279.048428693258</v>
       </c>
       <c r="AD3" t="n">
-        <v>161707.6912802325</v>
+        <v>225464.3796378499</v>
       </c>
       <c r="AE3" t="n">
-        <v>221255.5972493584</v>
+        <v>308490.3110067833</v>
       </c>
       <c r="AF3" t="n">
         <v>2.351539761405979e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.35185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>200139.2735821243</v>
+        <v>279048.428693258</v>
       </c>
     </row>
   </sheetData>
@@ -32909,28 +32909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.7904733385829</v>
+        <v>391.9275054530505</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.7135749765566</v>
+        <v>536.2525035820943</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.0882793998633</v>
+        <v>485.0733172753343</v>
       </c>
       <c r="AD2" t="n">
-        <v>295790.4733385829</v>
+        <v>391927.5054530505</v>
       </c>
       <c r="AE2" t="n">
-        <v>404713.5749765566</v>
+        <v>536252.5035820943</v>
       </c>
       <c r="AF2" t="n">
         <v>8.946274693823098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.25462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>366088.2793998633</v>
+        <v>485073.3172753343</v>
       </c>
     </row>
     <row r="3">
@@ -33015,28 +33015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.3530334231403</v>
+        <v>304.2491951531763</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.0744504373409</v>
+        <v>416.2871713357525</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.3859414834266</v>
+        <v>376.5573079661821</v>
       </c>
       <c r="AD3" t="n">
-        <v>227353.0334231404</v>
+        <v>304249.1951531763</v>
       </c>
       <c r="AE3" t="n">
-        <v>311074.4504373409</v>
+        <v>416287.1713357525</v>
       </c>
       <c r="AF3" t="n">
         <v>1.11804945238915e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>281385.9414834265</v>
+        <v>376557.3079661821</v>
       </c>
     </row>
     <row r="4">
@@ -33121,28 +33121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.6751474574504</v>
+        <v>287.5371437687053</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.255031082695</v>
+        <v>393.4210053478471</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.7443754847245</v>
+        <v>355.8734567672968</v>
       </c>
       <c r="AD4" t="n">
-        <v>210675.1474574503</v>
+        <v>287537.1437687053</v>
       </c>
       <c r="AE4" t="n">
-        <v>288255.031082695</v>
+        <v>393421.0053478471</v>
       </c>
       <c r="AF4" t="n">
         <v>1.191380342942909e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>260744.3754847245</v>
+        <v>355873.4567672968</v>
       </c>
     </row>
     <row r="5">
@@ -33227,28 +33227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>196.9262147347498</v>
+        <v>273.855530853709</v>
       </c>
       <c r="AB5" t="n">
-        <v>269.4431347714027</v>
+        <v>374.7012189673866</v>
       </c>
       <c r="AC5" t="n">
-        <v>243.7278601547136</v>
+        <v>338.9402605256022</v>
       </c>
       <c r="AD5" t="n">
-        <v>196926.2147347498</v>
+        <v>273855.530853709</v>
       </c>
       <c r="AE5" t="n">
-        <v>269443.1347714027</v>
+        <v>374701.2189673866</v>
       </c>
       <c r="AF5" t="n">
         <v>1.235851777743822e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.66435185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>243727.8601547136</v>
+        <v>338940.2605256022</v>
       </c>
     </row>
     <row r="6">
@@ -33333,28 +33333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>194.7115234425293</v>
+        <v>261.9872499803477</v>
       </c>
       <c r="AB6" t="n">
-        <v>266.4128964401041</v>
+        <v>358.4625134848547</v>
       </c>
       <c r="AC6" t="n">
-        <v>240.986823516787</v>
+        <v>324.251354303157</v>
       </c>
       <c r="AD6" t="n">
-        <v>194711.5234425293</v>
+        <v>261987.2499803476</v>
       </c>
       <c r="AE6" t="n">
-        <v>266412.8964401041</v>
+        <v>358462.5134848547</v>
       </c>
       <c r="AF6" t="n">
         <v>1.257555090643141e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.40972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>240986.8235167869</v>
+        <v>324251.354303157</v>
       </c>
     </row>
     <row r="7">
@@ -33439,28 +33439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>192.8623190046531</v>
+        <v>260.1380455424714</v>
       </c>
       <c r="AB7" t="n">
-        <v>263.882733347061</v>
+        <v>355.9323503918104</v>
       </c>
       <c r="AC7" t="n">
-        <v>238.6981356382369</v>
+        <v>321.9626664246065</v>
       </c>
       <c r="AD7" t="n">
-        <v>192862.3190046531</v>
+        <v>260138.0455424714</v>
       </c>
       <c r="AE7" t="n">
-        <v>263882.733347061</v>
+        <v>355932.3503918104</v>
       </c>
       <c r="AF7" t="n">
         <v>1.275077462312937e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.21296296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>238698.1356382369</v>
+        <v>321962.6664246065</v>
       </c>
     </row>
     <row r="8">
@@ -33545,28 +33545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>191.1274575864683</v>
+        <v>258.4031841242865</v>
       </c>
       <c r="AB8" t="n">
-        <v>261.5090194180176</v>
+        <v>353.5586364627658</v>
       </c>
       <c r="AC8" t="n">
-        <v>236.5509656350523</v>
+        <v>319.8154964214215</v>
       </c>
       <c r="AD8" t="n">
-        <v>191127.4575864683</v>
+        <v>258403.1841242865</v>
       </c>
       <c r="AE8" t="n">
-        <v>261509.0194180176</v>
+        <v>353558.6364627658</v>
       </c>
       <c r="AF8" t="n">
         <v>1.287416719574599e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.07407407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>236550.9656350523</v>
+        <v>319815.4964214215</v>
       </c>
     </row>
     <row r="9">
@@ -33651,28 +33651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>179.3820384915061</v>
+        <v>256.277189191681</v>
       </c>
       <c r="AB9" t="n">
-        <v>245.4384188409786</v>
+        <v>350.6497564035323</v>
       </c>
       <c r="AC9" t="n">
-        <v>222.0141206218512</v>
+        <v>317.1842357925078</v>
       </c>
       <c r="AD9" t="n">
-        <v>179382.038491506</v>
+        <v>256277.189191681</v>
       </c>
       <c r="AE9" t="n">
-        <v>245438.4188409786</v>
+        <v>350649.7564035322</v>
       </c>
       <c r="AF9" t="n">
         <v>1.301243577648263e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.92361111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>222014.1206218512</v>
+        <v>317184.2357925078</v>
       </c>
     </row>
     <row r="10">
@@ -33757,28 +33757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>179.022141343165</v>
+        <v>255.9172920433399</v>
       </c>
       <c r="AB10" t="n">
-        <v>244.945991685077</v>
+        <v>350.1573292476306</v>
       </c>
       <c r="AC10" t="n">
-        <v>221.5686900225828</v>
+        <v>316.7388051932395</v>
       </c>
       <c r="AD10" t="n">
-        <v>179022.141343165</v>
+        <v>255917.2920433399</v>
       </c>
       <c r="AE10" t="n">
-        <v>244945.991685077</v>
+        <v>350157.3292476306</v>
       </c>
       <c r="AF10" t="n">
         <v>1.299505433541608e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.94675925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>221568.6900225828</v>
+        <v>316738.8051932395</v>
       </c>
     </row>
     <row r="11">
@@ -33863,28 +33863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>179.0999481926935</v>
+        <v>255.9950988928684</v>
       </c>
       <c r="AB11" t="n">
-        <v>245.0524504491977</v>
+        <v>350.2637880117514</v>
       </c>
       <c r="AC11" t="n">
-        <v>221.6649885116717</v>
+        <v>316.8351036823284</v>
       </c>
       <c r="AD11" t="n">
-        <v>179099.9481926935</v>
+        <v>255995.0988928684</v>
       </c>
       <c r="AE11" t="n">
-        <v>245052.4504491977</v>
+        <v>350263.7880117514</v>
       </c>
       <c r="AF11" t="n">
         <v>1.299442797717945e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.94675925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>221664.9885116717</v>
+        <v>316835.1036823284</v>
       </c>
     </row>
   </sheetData>
@@ -34160,28 +34160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.5771142043527</v>
+        <v>468.6435765379882</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.7257593108635</v>
+        <v>641.2188165146982</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.5098271941981</v>
+        <v>580.0217926227959</v>
       </c>
       <c r="AD2" t="n">
-        <v>361577.1142043527</v>
+        <v>468643.5765379881</v>
       </c>
       <c r="AE2" t="n">
-        <v>494725.7593108635</v>
+        <v>641218.8165146982</v>
       </c>
       <c r="AF2" t="n">
         <v>7.104545252025178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>447509.8271941982</v>
+        <v>580021.7926227959</v>
       </c>
     </row>
     <row r="3">
@@ -34266,28 +34266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.2476592101328</v>
+        <v>342.7731331202901</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.2411080631215</v>
+        <v>468.9973228185522</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.9100268726552</v>
+        <v>424.2368765706254</v>
       </c>
       <c r="AD3" t="n">
-        <v>255247.6592101328</v>
+        <v>342773.1331202901</v>
       </c>
       <c r="AE3" t="n">
-        <v>349241.1080631216</v>
+        <v>468997.3228185521</v>
       </c>
       <c r="AF3" t="n">
         <v>9.389387153793766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.44212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>315910.0268726552</v>
+        <v>424236.8765706255</v>
       </c>
     </row>
     <row r="4">
@@ -34372,28 +34372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.7497743933999</v>
+        <v>312.5730849293778</v>
       </c>
       <c r="AB4" t="n">
-        <v>321.194997754026</v>
+        <v>427.6762845516511</v>
       </c>
       <c r="AC4" t="n">
-        <v>290.5405979684878</v>
+        <v>386.859460201476</v>
       </c>
       <c r="AD4" t="n">
-        <v>234749.7743933999</v>
+        <v>312573.0849293778</v>
       </c>
       <c r="AE4" t="n">
-        <v>321194.997754026</v>
+        <v>427676.284551651</v>
       </c>
       <c r="AF4" t="n">
         <v>1.022646448168967e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.01851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>290540.5979684878</v>
+        <v>386859.460201476</v>
       </c>
     </row>
     <row r="5">
@@ -34478,28 +34478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.9196621230723</v>
+        <v>297.7088072402692</v>
       </c>
       <c r="AB5" t="n">
-        <v>300.9037838873959</v>
+        <v>407.3383240517626</v>
       </c>
       <c r="AC5" t="n">
-        <v>272.1859490743848</v>
+        <v>368.4625261071901</v>
       </c>
       <c r="AD5" t="n">
-        <v>219919.6621230723</v>
+        <v>297708.8072402691</v>
       </c>
       <c r="AE5" t="n">
-        <v>300903.7838873959</v>
+        <v>407338.3240517626</v>
       </c>
       <c r="AF5" t="n">
         <v>1.066651020341993e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.3587962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>272185.9490743848</v>
+        <v>368462.5261071901</v>
       </c>
     </row>
     <row r="6">
@@ -34584,28 +34584,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>207.024161031614</v>
+        <v>284.8806259565151</v>
       </c>
       <c r="AB6" t="n">
-        <v>283.2595903847149</v>
+        <v>389.786240479914</v>
       </c>
       <c r="AC6" t="n">
-        <v>256.2256926358129</v>
+        <v>352.5855887569347</v>
       </c>
       <c r="AD6" t="n">
-        <v>207024.161031614</v>
+        <v>284880.6259565151</v>
       </c>
       <c r="AE6" t="n">
-        <v>283259.5903847149</v>
+        <v>389786.240479914</v>
       </c>
       <c r="AF6" t="n">
         <v>1.094214012815644e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.96527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>256225.6926358129</v>
+        <v>352585.5887569347</v>
       </c>
     </row>
     <row r="7">
@@ -34690,28 +34690,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>204.8585932101374</v>
+        <v>282.7150581350385</v>
       </c>
       <c r="AB7" t="n">
-        <v>280.2965649532626</v>
+        <v>386.8232150484602</v>
       </c>
       <c r="AC7" t="n">
-        <v>253.5454541929052</v>
+        <v>349.9053503140265</v>
       </c>
       <c r="AD7" t="n">
-        <v>204858.5932101374</v>
+        <v>282715.0581350385</v>
       </c>
       <c r="AE7" t="n">
-        <v>280296.5649532626</v>
+        <v>386823.2150484602</v>
       </c>
       <c r="AF7" t="n">
         <v>1.111405509661376e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.7337962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>253545.4541929052</v>
+        <v>349905.3503140265</v>
       </c>
     </row>
     <row r="8">
@@ -34796,28 +34796,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>203.0853891004708</v>
+        <v>280.9418540253718</v>
       </c>
       <c r="AB8" t="n">
-        <v>277.8703888621736</v>
+        <v>384.3970389573701</v>
       </c>
       <c r="AC8" t="n">
-        <v>251.3508289427895</v>
+        <v>347.7107250639105</v>
       </c>
       <c r="AD8" t="n">
-        <v>203085.3891004708</v>
+        <v>280941.8540253718</v>
       </c>
       <c r="AE8" t="n">
-        <v>277870.3888621737</v>
+        <v>384397.03895737</v>
       </c>
       <c r="AF8" t="n">
         <v>1.127309412916194e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.52546296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>251350.8289427895</v>
+        <v>347710.7250639105</v>
       </c>
     </row>
     <row r="9">
@@ -34902,28 +34902,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>201.8268389019823</v>
+        <v>269.9138206449998</v>
       </c>
       <c r="AB9" t="n">
-        <v>276.1483849572865</v>
+        <v>369.3079971638493</v>
       </c>
       <c r="AC9" t="n">
-        <v>249.7931706737366</v>
+        <v>334.0617602415603</v>
       </c>
       <c r="AD9" t="n">
-        <v>201826.8389019823</v>
+        <v>269913.8206449998</v>
       </c>
       <c r="AE9" t="n">
-        <v>276148.3849572865</v>
+        <v>369307.9971638493</v>
       </c>
       <c r="AF9" t="n">
         <v>1.13336534760753e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>249793.1706737366</v>
+        <v>334061.7602415602</v>
       </c>
     </row>
     <row r="10">
@@ -35008,28 +35008,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>200.3430326490448</v>
+        <v>268.4300143920622</v>
       </c>
       <c r="AB10" t="n">
-        <v>274.1181757811065</v>
+        <v>367.2777879876683</v>
       </c>
       <c r="AC10" t="n">
-        <v>247.9567218119141</v>
+        <v>332.2253113797374</v>
       </c>
       <c r="AD10" t="n">
-        <v>200343.0326490448</v>
+        <v>268430.0143920622</v>
       </c>
       <c r="AE10" t="n">
-        <v>274118.1757811065</v>
+        <v>367277.7879876683</v>
       </c>
       <c r="AF10" t="n">
         <v>1.145576262651042e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.29398148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>247956.7218119141</v>
+        <v>332225.3113797374</v>
       </c>
     </row>
     <row r="11">
@@ -35114,28 +35114,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>199.2702590739029</v>
+        <v>267.3572408169204</v>
       </c>
       <c r="AB11" t="n">
-        <v>272.6503596481681</v>
+        <v>365.8099718547292</v>
       </c>
       <c r="AC11" t="n">
-        <v>246.62899199061</v>
+        <v>330.8975815584331</v>
       </c>
       <c r="AD11" t="n">
-        <v>199270.2590739029</v>
+        <v>267357.2408169204</v>
       </c>
       <c r="AE11" t="n">
-        <v>272650.3596481681</v>
+        <v>365809.9718547292</v>
       </c>
       <c r="AF11" t="n">
         <v>1.151858587424297e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.21296296296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>246628.99199061</v>
+        <v>330897.5815584331</v>
       </c>
     </row>
     <row r="12">
@@ -35220,28 +35220,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>197.9128514554448</v>
+        <v>265.9998331984623</v>
       </c>
       <c r="AB12" t="n">
-        <v>270.7930946599971</v>
+        <v>363.9527068665572</v>
       </c>
       <c r="AC12" t="n">
-        <v>244.9489817662216</v>
+        <v>329.2175713340445</v>
       </c>
       <c r="AD12" t="n">
-        <v>197912.8514554448</v>
+        <v>265999.8331984623</v>
       </c>
       <c r="AE12" t="n">
-        <v>270793.094659997</v>
+        <v>363952.7068665571</v>
       </c>
       <c r="AF12" t="n">
         <v>1.157999418396353e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.14351851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>244948.9817662216</v>
+        <v>329217.5713340444</v>
       </c>
     </row>
     <row r="13">
@@ -35326,28 +35326,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>196.635930590667</v>
+        <v>264.7229123336845</v>
       </c>
       <c r="AB13" t="n">
-        <v>269.0459551990363</v>
+        <v>362.2055674055954</v>
       </c>
       <c r="AC13" t="n">
-        <v>243.3685868432887</v>
+        <v>327.6371764111113</v>
       </c>
       <c r="AD13" t="n">
-        <v>196635.930590667</v>
+        <v>264722.9123336844</v>
       </c>
       <c r="AE13" t="n">
-        <v>269045.9551990363</v>
+        <v>362205.5674055954</v>
       </c>
       <c r="AF13" t="n">
         <v>1.162569668175095e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.08564814814815</v>
       </c>
       <c r="AH13" t="n">
-        <v>243368.5868432887</v>
+        <v>327637.1764111113</v>
       </c>
     </row>
     <row r="14">
@@ -35432,28 +35432,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>196.7469785275227</v>
+        <v>264.83396027054</v>
       </c>
       <c r="AB14" t="n">
-        <v>269.1978958853312</v>
+        <v>362.3575080918905</v>
       </c>
       <c r="AC14" t="n">
-        <v>243.5060265237338</v>
+        <v>327.7746160915564</v>
       </c>
       <c r="AD14" t="n">
-        <v>196746.9785275226</v>
+        <v>264833.96027054</v>
       </c>
       <c r="AE14" t="n">
-        <v>269197.8958853312</v>
+        <v>362357.5080918905</v>
       </c>
       <c r="AF14" t="n">
         <v>1.16360257292385e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.07407407407407</v>
       </c>
       <c r="AH14" t="n">
-        <v>243506.0265237338</v>
+        <v>327774.6160915564</v>
       </c>
     </row>
     <row r="15">
@@ -35538,28 +35538,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>196.819020664537</v>
+        <v>264.9060024075545</v>
       </c>
       <c r="AB15" t="n">
-        <v>269.2964671154691</v>
+        <v>362.4560793220284</v>
       </c>
       <c r="AC15" t="n">
-        <v>243.5951902540129</v>
+        <v>327.8637798218356</v>
       </c>
       <c r="AD15" t="n">
-        <v>196819.020664537</v>
+        <v>264906.0024075545</v>
       </c>
       <c r="AE15" t="n">
-        <v>269296.467115469</v>
+        <v>362456.0793220284</v>
       </c>
       <c r="AF15" t="n">
         <v>1.162909253297973e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.08564814814815</v>
       </c>
       <c r="AH15" t="n">
-        <v>243595.1902540129</v>
+        <v>327863.7798218356</v>
       </c>
     </row>
   </sheetData>
@@ -35835,28 +35835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.0563155022194</v>
+        <v>229.2308466174549</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.2055767576385</v>
+        <v>313.6437572930722</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.5213953969847</v>
+        <v>283.7100372988925</v>
       </c>
       <c r="AD2" t="n">
-        <v>166056.3155022194</v>
+        <v>229230.8466174549</v>
       </c>
       <c r="AE2" t="n">
-        <v>227205.5767576385</v>
+        <v>313643.7572930722</v>
       </c>
       <c r="AF2" t="n">
         <v>2.646722000613842e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.01157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>205521.3953969847</v>
+        <v>283710.0372988925</v>
       </c>
     </row>
   </sheetData>
@@ -36132,28 +36132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.2294582427616</v>
+        <v>315.1159437609099</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.0101017744517</v>
+        <v>431.1555361879675</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.945979780646</v>
+        <v>390.0066569447828</v>
       </c>
       <c r="AD2" t="n">
-        <v>230229.4582427616</v>
+        <v>315115.94376091</v>
       </c>
       <c r="AE2" t="n">
-        <v>315010.1017744517</v>
+        <v>431155.5361879675</v>
       </c>
       <c r="AF2" t="n">
         <v>1.249580309821774e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.33796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>284945.979780646</v>
+        <v>390006.6569447828</v>
       </c>
     </row>
     <row r="3">
@@ -36238,28 +36238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.6810104847775</v>
+        <v>262.1917079501152</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.4251943300857</v>
+        <v>358.7422618991397</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.0477722748085</v>
+        <v>324.5044039214119</v>
       </c>
       <c r="AD3" t="n">
-        <v>186681.0104847774</v>
+        <v>262191.7079501152</v>
       </c>
       <c r="AE3" t="n">
-        <v>255425.1943300857</v>
+        <v>358742.2618991397</v>
       </c>
       <c r="AF3" t="n">
         <v>1.457435108935045e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.86111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>231047.7722748085</v>
+        <v>324504.403921412</v>
       </c>
     </row>
     <row r="4">
@@ -36344,28 +36344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.259166890199</v>
+        <v>248.2936021060954</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.375032846015</v>
+        <v>339.7262603420352</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.5750297113206</v>
+        <v>307.3032628638936</v>
       </c>
       <c r="AD4" t="n">
-        <v>182259.166890199</v>
+        <v>248293.6021060954</v>
       </c>
       <c r="AE4" t="n">
-        <v>249375.032846015</v>
+        <v>339726.2603420352</v>
       </c>
       <c r="AF4" t="n">
         <v>1.524786276847952e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>225575.0297113206</v>
+        <v>307303.2628638936</v>
       </c>
     </row>
     <row r="5">
@@ -36450,28 +36450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.6507913796737</v>
+        <v>235.7525464032745</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.123697230253</v>
+        <v>322.5670346571146</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.9701373543198</v>
+        <v>291.7816895952119</v>
       </c>
       <c r="AD5" t="n">
-        <v>169650.7913796737</v>
+        <v>235752.5464032745</v>
       </c>
       <c r="AE5" t="n">
-        <v>232123.697230253</v>
+        <v>322567.0346571146</v>
       </c>
       <c r="AF5" t="n">
         <v>1.563318106448585e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>209970.1373543198</v>
+        <v>291781.6895952119</v>
       </c>
     </row>
     <row r="6">
@@ -36556,28 +36556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>168.5276174219007</v>
+        <v>234.6293724455016</v>
       </c>
       <c r="AB6" t="n">
-        <v>230.5869210702909</v>
+        <v>321.0302584971526</v>
       </c>
       <c r="AC6" t="n">
-        <v>208.5800289541852</v>
+        <v>290.3915811950772</v>
       </c>
       <c r="AD6" t="n">
-        <v>168527.6174219007</v>
+        <v>234629.3724455016</v>
       </c>
       <c r="AE6" t="n">
-        <v>230586.9210702909</v>
+        <v>321030.2584971526</v>
       </c>
       <c r="AF6" t="n">
         <v>1.575500826735138e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>208580.0289541852</v>
+        <v>290391.5811950772</v>
       </c>
     </row>
   </sheetData>
@@ -36853,28 +36853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.6417785363578</v>
+        <v>356.6031556895339</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.304021266041</v>
+        <v>487.9201698353259</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.9627252013672</v>
+        <v>441.353753626501</v>
       </c>
       <c r="AD2" t="n">
-        <v>270641.7785363578</v>
+        <v>356603.1556895339</v>
       </c>
       <c r="AE2" t="n">
-        <v>370304.021266041</v>
+        <v>487920.1698353259</v>
       </c>
       <c r="AF2" t="n">
         <v>1.013075939779919e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.03935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>334962.7252013672</v>
+        <v>441353.753626501</v>
       </c>
     </row>
     <row r="3">
@@ -36959,28 +36959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.5089117586246</v>
+        <v>285.9484953516047</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.6593359488746</v>
+        <v>391.2473464973485</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.3009712549032</v>
+        <v>353.9072488667403</v>
       </c>
       <c r="AD3" t="n">
-        <v>209508.9117586246</v>
+        <v>285948.4953516047</v>
       </c>
       <c r="AE3" t="n">
-        <v>286659.3359488747</v>
+        <v>391247.3464973485</v>
       </c>
       <c r="AF3" t="n">
         <v>1.227468910389966e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.71759259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>259300.9712549032</v>
+        <v>353907.2488667403</v>
       </c>
     </row>
     <row r="4">
@@ -37065,28 +37065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.5234088972919</v>
+        <v>269.928827071491</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.7872657033967</v>
+        <v>369.3285296186113</v>
       </c>
       <c r="AC4" t="n">
-        <v>239.5163406960033</v>
+        <v>334.0803331076573</v>
       </c>
       <c r="AD4" t="n">
-        <v>193523.4088972919</v>
+        <v>269928.827071491</v>
       </c>
       <c r="AE4" t="n">
-        <v>264787.2657033966</v>
+        <v>369328.5296186113</v>
       </c>
       <c r="AF4" t="n">
         <v>1.304154473171517e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>239516.3406960033</v>
+        <v>334080.3331076573</v>
       </c>
     </row>
     <row r="5">
@@ -37171,28 +37171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>190.1610655786985</v>
+        <v>256.9783814148485</v>
       </c>
       <c r="AB5" t="n">
-        <v>260.1867592387812</v>
+        <v>351.6091585376872</v>
       </c>
       <c r="AC5" t="n">
-        <v>235.3549001115179</v>
+        <v>318.0520739335087</v>
       </c>
       <c r="AD5" t="n">
-        <v>190161.0655786985</v>
+        <v>256978.3814148485</v>
       </c>
       <c r="AE5" t="n">
-        <v>260186.7592387812</v>
+        <v>351609.1585376872</v>
       </c>
       <c r="AF5" t="n">
         <v>1.344830148692978e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>235354.9001115179</v>
+        <v>318052.0739335087</v>
       </c>
     </row>
     <row r="6">
@@ -37277,28 +37277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>187.9686378366004</v>
+        <v>254.7859536727504</v>
       </c>
       <c r="AB6" t="n">
-        <v>257.1869828789586</v>
+        <v>348.6093821778645</v>
       </c>
       <c r="AC6" t="n">
-        <v>232.6414181972632</v>
+        <v>315.3385920192541</v>
       </c>
       <c r="AD6" t="n">
-        <v>187968.6378366004</v>
+        <v>254785.9536727504</v>
       </c>
       <c r="AE6" t="n">
-        <v>257186.9828789586</v>
+        <v>348609.3821778645</v>
       </c>
       <c r="AF6" t="n">
         <v>1.366642708814893e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.1087962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>232641.4181972632</v>
+        <v>315338.5920192541</v>
       </c>
     </row>
     <row r="7">
@@ -37383,28 +37383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>176.032752498923</v>
+        <v>252.4040052543378</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.8557779858591</v>
+        <v>345.3502952676463</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.868840578166</v>
+        <v>312.3905477895888</v>
       </c>
       <c r="AD7" t="n">
-        <v>176032.752498923</v>
+        <v>252404.0052543379</v>
       </c>
       <c r="AE7" t="n">
-        <v>240855.7779858591</v>
+        <v>345350.2952676463</v>
       </c>
       <c r="AF7" t="n">
         <v>1.387888708933641e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.90046296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>217868.840578166</v>
+        <v>312390.5477895888</v>
       </c>
     </row>
     <row r="8">
@@ -37489,28 +37489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>175.1834985376522</v>
+        <v>251.5547512930671</v>
       </c>
       <c r="AB8" t="n">
-        <v>239.6937912496086</v>
+        <v>344.1883085313958</v>
       </c>
       <c r="AC8" t="n">
-        <v>216.8177522251642</v>
+        <v>311.339459436587</v>
       </c>
       <c r="AD8" t="n">
-        <v>175183.4985376523</v>
+        <v>251554.7512930671</v>
       </c>
       <c r="AE8" t="n">
-        <v>239693.7912496086</v>
+        <v>344188.3085313957</v>
       </c>
       <c r="AF8" t="n">
         <v>1.390921471303533e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.86574074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>216817.7522251642</v>
+        <v>311339.4594365871</v>
       </c>
     </row>
     <row r="9">
@@ -37595,28 +37595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>175.2246922306835</v>
+        <v>251.5959449860984</v>
       </c>
       <c r="AB9" t="n">
-        <v>239.7501542777514</v>
+        <v>344.2446715595386</v>
       </c>
       <c r="AC9" t="n">
-        <v>216.8687360450071</v>
+        <v>311.3904432564299</v>
       </c>
       <c r="AD9" t="n">
-        <v>175224.6922306835</v>
+        <v>251595.9449860984</v>
       </c>
       <c r="AE9" t="n">
-        <v>239750.1542777514</v>
+        <v>344244.6715595386</v>
       </c>
       <c r="AF9" t="n">
         <v>1.390454892477396e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.86574074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>216868.7360450071</v>
+        <v>311390.4432564299</v>
       </c>
     </row>
   </sheetData>
